--- a/planning.xlsx
+++ b/planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienbeguin/Desktop/MON APPLICATION PLANNING/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienbeguin/Desktop/Mon_App_Planning_Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7609DCA-208D-E548-876E-74C832AADFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FDD4A1-7BF7-784C-AF24-F51C941F22EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22120" yWindow="1900" windowWidth="27640" windowHeight="16940" xr2:uid="{69F5D6A4-E2E0-1044-9F99-AFEFC3369136}"/>
+    <workbookView xWindow="1720" yWindow="2700" windowWidth="11280" windowHeight="16940" xr2:uid="{69F5D6A4-E2E0-1044-9F99-AFEFC3369136}"/>
   </bookViews>
   <sheets>
     <sheet name="De la S41 à la S52" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="29">
   <si>
     <t>NOM VENDEUR</t>
   </si>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF17394-328A-A34F-A5DB-16323C78C5F4}">
   <dimension ref="A1:F337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="I313" sqref="I313"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,9 +1139,8 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" t="str">
-        <f t="shared" ref="B30:B50" si="1">B29</f>
-        <v>S41</v>
+      <c r="B30" t="s">
+        <v>18</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -1155,9 +1154,8 @@
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B31" t="s">
+        <v>18</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -1177,9 +1175,8 @@
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B32" t="s">
+        <v>18</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -1199,9 +1196,8 @@
       <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B33" t="s">
+        <v>18</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1221,9 +1217,8 @@
       <c r="A34" t="s">
         <v>6</v>
       </c>
-      <c r="B34" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B34" t="s">
+        <v>18</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -1243,9 +1238,8 @@
       <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B35" t="s">
+        <v>18</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -1265,9 +1259,8 @@
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B36" t="s">
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -1281,9 +1274,8 @@
       <c r="A37" t="s">
         <v>15</v>
       </c>
-      <c r="B37" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B37" t="s">
+        <v>18</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -1299,9 +1291,8 @@
       <c r="A38" t="s">
         <v>15</v>
       </c>
-      <c r="B38" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B38" t="s">
+        <v>18</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -1317,9 +1308,8 @@
       <c r="A39" t="s">
         <v>15</v>
       </c>
-      <c r="B39" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B39" t="s">
+        <v>18</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -1333,9 +1323,8 @@
       <c r="A40" t="s">
         <v>15</v>
       </c>
-      <c r="B40" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B40" t="s">
+        <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -1351,9 +1340,8 @@
       <c r="A41" t="s">
         <v>15</v>
       </c>
-      <c r="B41" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B41" t="s">
+        <v>18</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -1369,9 +1357,8 @@
       <c r="A42" t="s">
         <v>15</v>
       </c>
-      <c r="B42" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B42" t="s">
+        <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -1387,9 +1374,8 @@
       <c r="A43" t="s">
         <v>15</v>
       </c>
-      <c r="B43" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B43" t="s">
+        <v>18</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -1403,9 +1389,8 @@
       <c r="A44" t="s">
         <v>16</v>
       </c>
-      <c r="B44" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B44" t="s">
+        <v>18</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
@@ -1419,9 +1404,8 @@
       <c r="A45" t="s">
         <v>16</v>
       </c>
-      <c r="B45" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B45" t="s">
+        <v>18</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
@@ -1435,9 +1419,8 @@
       <c r="A46" t="s">
         <v>16</v>
       </c>
-      <c r="B46" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B46" t="s">
+        <v>18</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -1457,9 +1440,8 @@
       <c r="A47" t="s">
         <v>16</v>
       </c>
-      <c r="B47" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B47" t="s">
+        <v>18</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
@@ -1479,9 +1461,8 @@
       <c r="A48" t="s">
         <v>16</v>
       </c>
-      <c r="B48" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B48" t="s">
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -1501,9 +1482,8 @@
       <c r="A49" t="s">
         <v>16</v>
       </c>
-      <c r="B49" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B49" t="s">
+        <v>18</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -1519,9 +1499,8 @@
       <c r="A50" t="s">
         <v>16</v>
       </c>
-      <c r="B50" t="str">
-        <f t="shared" si="1"/>
-        <v>S41</v>
+      <c r="B50" t="s">
+        <v>18</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -1557,7 +1536,7 @@
         <v>17</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" ref="B52:B57" si="2">B51</f>
+        <f t="shared" ref="B52:B57" si="1">B51</f>
         <v>S42</v>
       </c>
       <c r="C52" t="s">
@@ -1579,7 +1558,7 @@
         <v>17</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>S42</v>
       </c>
       <c r="C53" t="s">
@@ -1597,7 +1576,7 @@
         <v>17</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>S42</v>
       </c>
       <c r="C54" t="s">
@@ -1613,7 +1592,7 @@
         <v>17</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>S42</v>
       </c>
       <c r="C55" t="s">
@@ -1629,7 +1608,7 @@
         <v>17</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>S42</v>
       </c>
       <c r="C56" t="s">
@@ -1651,7 +1630,7 @@
         <v>17</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>S42</v>
       </c>
       <c r="C57" t="s">
@@ -2175,7 +2154,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="1">
-        <f>E86-D86</f>
+        <f t="shared" ref="F86:F117" si="2">E86-D86</f>
         <v>0</v>
       </c>
     </row>
@@ -2196,7 +2175,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F87" s="1">
-        <f>E87-D87</f>
+        <f t="shared" si="2"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -2217,7 +2196,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F88" s="1">
-        <f>E88-D88</f>
+        <f t="shared" si="2"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -2238,7 +2217,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F89" s="1">
-        <f>E89-D89</f>
+        <f t="shared" si="2"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -2259,7 +2238,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F90" s="1">
-        <f>E90-D90</f>
+        <f t="shared" si="2"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -2280,7 +2259,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F91" s="1">
-        <f>E91-D91</f>
+        <f t="shared" si="2"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2295,7 +2274,7 @@
         <v>14</v>
       </c>
       <c r="F92" s="1">
-        <f>E92-D92</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2312,7 +2291,7 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1">
-        <f>E93-D93</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2329,7 +2308,7 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1">
-        <f>E94-D94</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2344,7 +2323,7 @@
         <v>10</v>
       </c>
       <c r="F95" s="1">
-        <f>E95-D95</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2361,7 +2340,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1">
-        <f>E96-D96</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2378,7 +2357,7 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1">
-        <f>E97-D97</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2395,7 +2374,7 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1">
-        <f>E98-D98</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2410,7 +2389,7 @@
         <v>14</v>
       </c>
       <c r="F99" s="1">
-        <f>E99-D99</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2425,7 +2404,7 @@
         <v>8</v>
       </c>
       <c r="F100" s="1">
-        <f>E100-D100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2440,7 +2419,7 @@
         <v>9</v>
       </c>
       <c r="F101" s="1">
-        <f>E101-D101</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2461,7 +2440,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F102" s="1">
-        <f>E102-D102</f>
+        <f t="shared" si="2"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2482,7 +2461,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F103" s="1">
-        <f>E103-D103</f>
+        <f t="shared" si="2"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2503,7 +2482,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F104" s="1">
-        <f>E104-D104</f>
+        <f t="shared" si="2"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2520,7 +2499,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1">
-        <f>E105-D105</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2535,7 +2514,7 @@
         <v>14</v>
       </c>
       <c r="F106" s="1">
-        <f>E106-D106</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2556,7 +2535,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F107" s="1">
-        <f>E107-D107</f>
+        <f t="shared" si="2"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2565,7 +2544,7 @@
         <v>17</v>
       </c>
       <c r="B108" t="str">
-        <f>B107</f>
+        <f t="shared" ref="B108:B113" si="3">B107</f>
         <v>S44</v>
       </c>
       <c r="C108" t="s">
@@ -2578,7 +2557,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F108" s="1">
-        <f>E108-D108</f>
+        <f t="shared" si="2"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2587,7 +2566,7 @@
         <v>17</v>
       </c>
       <c r="B109" t="str">
-        <f>B108</f>
+        <f t="shared" si="3"/>
         <v>S44</v>
       </c>
       <c r="C109" t="s">
@@ -2596,7 +2575,7 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1">
-        <f>E109-D109</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2605,14 +2584,14 @@
         <v>17</v>
       </c>
       <c r="B110" t="str">
-        <f>B109</f>
+        <f t="shared" si="3"/>
         <v>S44</v>
       </c>
       <c r="C110" t="s">
         <v>11</v>
       </c>
       <c r="F110" s="1">
-        <f>E110-D110</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2621,14 +2600,14 @@
         <v>17</v>
       </c>
       <c r="B111" t="str">
-        <f>B110</f>
+        <f t="shared" si="3"/>
         <v>S44</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="1">
-        <f>E111-D111</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2637,7 +2616,7 @@
         <v>17</v>
       </c>
       <c r="B112" t="str">
-        <f>B111</f>
+        <f t="shared" si="3"/>
         <v>S44</v>
       </c>
       <c r="C112" t="s">
@@ -2650,7 +2629,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F112" s="1">
-        <f>E112-D112</f>
+        <f t="shared" si="2"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2659,7 +2638,7 @@
         <v>17</v>
       </c>
       <c r="B113" t="str">
-        <f>B112</f>
+        <f t="shared" si="3"/>
         <v>S44</v>
       </c>
       <c r="C113" t="s">
@@ -2672,7 +2651,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F113" s="1">
-        <f>E113-D113</f>
+        <f t="shared" si="2"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -2687,7 +2666,7 @@
         <v>8</v>
       </c>
       <c r="F114" s="1">
-        <f>E114-D114</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2702,7 +2681,7 @@
         <v>9</v>
       </c>
       <c r="F115" s="1">
-        <f>E115-D115</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2717,7 +2696,7 @@
         <v>10</v>
       </c>
       <c r="F116" s="1">
-        <f>E116-D116</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2732,7 +2711,7 @@
         <v>11</v>
       </c>
       <c r="F117" s="1">
-        <f>E117-D117</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2747,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="F118" s="1">
-        <f>E118-D118</f>
+        <f t="shared" ref="F118:F149" si="4">E118-D118</f>
         <v>0</v>
       </c>
     </row>
@@ -2762,7 +2741,7 @@
         <v>13</v>
       </c>
       <c r="F119" s="1">
-        <f>E119-D119</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2777,7 +2756,7 @@
         <v>14</v>
       </c>
       <c r="F120" s="1">
-        <f>E120-D120</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2794,7 +2773,7 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1">
-        <f>E121-D121</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2815,7 +2794,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F122" s="1">
-        <f>E122-D122</f>
+        <f t="shared" si="4"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -2830,7 +2809,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="1">
-        <f>E123-D123</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2851,7 +2830,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F124" s="1">
-        <f>E124-D124</f>
+        <f t="shared" si="4"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -2872,7 +2851,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F125" s="1">
-        <f>E125-D125</f>
+        <f t="shared" si="4"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -2893,7 +2872,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F126" s="1">
-        <f>E126-D126</f>
+        <f t="shared" si="4"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2908,7 +2887,7 @@
         <v>14</v>
       </c>
       <c r="F127" s="1">
-        <f>E127-D127</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2923,7 +2902,7 @@
         <v>8</v>
       </c>
       <c r="F128" s="1">
-        <f>E128-D128</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2938,7 +2917,7 @@
         <v>9</v>
       </c>
       <c r="F129" s="1">
-        <f>E129-D129</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2959,7 +2938,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F130" s="1">
-        <f>E130-D130</f>
+        <f t="shared" si="4"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -2980,7 +2959,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F131" s="1">
-        <f>E131-D131</f>
+        <f t="shared" si="4"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3001,7 +2980,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F132" s="1">
-        <f>E132-D132</f>
+        <f t="shared" si="4"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3022,7 +3001,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F133" s="1">
-        <f>E133-D133</f>
+        <f t="shared" si="4"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3037,7 +3016,7 @@
         <v>14</v>
       </c>
       <c r="F134" s="1">
-        <f>E134-D134</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3058,7 +3037,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F135" s="1">
-        <f>E135-D135</f>
+        <f t="shared" si="4"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3079,7 +3058,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F136" s="1">
-        <f>E136-D136</f>
+        <f t="shared" si="4"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3100,7 +3079,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F137" s="1">
-        <f>E137-D137</f>
+        <f t="shared" si="4"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3115,7 +3094,7 @@
         <v>11</v>
       </c>
       <c r="F138" s="1">
-        <f>E138-D138</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3130,7 +3109,7 @@
         <v>12</v>
       </c>
       <c r="F139" s="1">
-        <f>E139-D139</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3145,7 +3124,7 @@
         <v>13</v>
       </c>
       <c r="F140" s="1">
-        <f>E140-D140</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3166,7 +3145,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F141" s="1">
-        <f>E141-D141</f>
+        <f t="shared" si="4"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -3181,7 +3160,7 @@
         <v>8</v>
       </c>
       <c r="F142" s="1">
-        <f>E142-D142</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3202,7 +3181,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F143" s="1">
-        <f>E143-D143</f>
+        <f t="shared" si="4"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -3223,7 +3202,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F144" s="1">
-        <f>E144-D144</f>
+        <f t="shared" si="4"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -3244,7 +3223,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F145" s="1">
-        <f>E145-D145</f>
+        <f t="shared" si="4"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -3265,7 +3244,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F146" s="1">
-        <f>E146-D146</f>
+        <f t="shared" si="4"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -3286,7 +3265,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F147" s="1">
-        <f>E147-D147</f>
+        <f t="shared" si="4"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3301,7 +3280,7 @@
         <v>14</v>
       </c>
       <c r="F148" s="1">
-        <f>E148-D148</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3318,7 +3297,7 @@
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1">
-        <f>E149-D149</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3335,7 +3314,7 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1">
-        <f>E150-D150</f>
+        <f t="shared" ref="F150:F181" si="5">E150-D150</f>
         <v>0</v>
       </c>
     </row>
@@ -3350,7 +3329,7 @@
         <v>10</v>
       </c>
       <c r="F151" s="1">
-        <f>E151-D151</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3367,7 +3346,7 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1">
-        <f>E152-D152</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3384,7 +3363,7 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1">
-        <f>E153-D153</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3401,7 +3380,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1">
-        <f>E154-D154</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3416,7 +3395,7 @@
         <v>14</v>
       </c>
       <c r="F155" s="1">
-        <f>E155-D155</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3431,7 +3410,7 @@
         <v>8</v>
       </c>
       <c r="F156" s="1">
-        <f>E156-D156</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3446,7 +3425,7 @@
         <v>9</v>
       </c>
       <c r="F157" s="1">
-        <f>E157-D157</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3467,7 +3446,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F158" s="1">
-        <f>E158-D158</f>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3488,7 +3467,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F159" s="1">
-        <f>E159-D159</f>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3509,7 +3488,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F160" s="1">
-        <f>E160-D160</f>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3526,7 +3505,7 @@
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1">
-        <f>E161-D161</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3541,7 +3520,7 @@
         <v>14</v>
       </c>
       <c r="F162" s="1">
-        <f>E162-D162</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3562,7 +3541,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F163" s="1">
-        <f>E163-D163</f>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3571,7 +3550,7 @@
         <v>17</v>
       </c>
       <c r="B164" t="str">
-        <f>B163</f>
+        <f t="shared" ref="B164:B169" si="6">B163</f>
         <v>S46</v>
       </c>
       <c r="C164" t="s">
@@ -3584,7 +3563,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F164" s="1">
-        <f>E164-D164</f>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3593,7 +3572,7 @@
         <v>17</v>
       </c>
       <c r="B165" t="str">
-        <f>B164</f>
+        <f t="shared" si="6"/>
         <v>S46</v>
       </c>
       <c r="C165" t="s">
@@ -3602,7 +3581,7 @@
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1">
-        <f>E165-D165</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3611,14 +3590,14 @@
         <v>17</v>
       </c>
       <c r="B166" t="str">
-        <f>B165</f>
+        <f t="shared" si="6"/>
         <v>S46</v>
       </c>
       <c r="C166" t="s">
         <v>11</v>
       </c>
       <c r="F166" s="1">
-        <f>E166-D166</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3627,14 +3606,14 @@
         <v>17</v>
       </c>
       <c r="B167" t="str">
-        <f>B166</f>
+        <f t="shared" si="6"/>
         <v>S46</v>
       </c>
       <c r="C167" t="s">
         <v>12</v>
       </c>
       <c r="F167" s="1">
-        <f>E167-D167</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3643,7 +3622,7 @@
         <v>17</v>
       </c>
       <c r="B168" t="str">
-        <f>B167</f>
+        <f t="shared" si="6"/>
         <v>S46</v>
       </c>
       <c r="C168" t="s">
@@ -3656,7 +3635,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F168" s="1">
-        <f>E168-D168</f>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3665,7 +3644,7 @@
         <v>17</v>
       </c>
       <c r="B169" t="str">
-        <f>B168</f>
+        <f t="shared" si="6"/>
         <v>S46</v>
       </c>
       <c r="C169" t="s">
@@ -3678,7 +3657,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F169" s="1">
-        <f>E169-D169</f>
+        <f t="shared" si="5"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -3693,7 +3672,7 @@
         <v>8</v>
       </c>
       <c r="F170" s="1">
-        <f>E170-D170</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3708,7 +3687,7 @@
         <v>9</v>
       </c>
       <c r="F171" s="1">
-        <f>E171-D171</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3723,7 +3702,7 @@
         <v>10</v>
       </c>
       <c r="F172" s="1">
-        <f>E172-D172</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3738,7 +3717,7 @@
         <v>11</v>
       </c>
       <c r="F173" s="1">
-        <f>E173-D173</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3753,7 +3732,7 @@
         <v>12</v>
       </c>
       <c r="F174" s="1">
-        <f>E174-D174</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3768,7 +3747,7 @@
         <v>13</v>
       </c>
       <c r="F175" s="1">
-        <f>E175-D175</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3783,7 +3762,7 @@
         <v>14</v>
       </c>
       <c r="F176" s="1">
-        <f>E176-D176</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3800,7 +3779,7 @@
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1">
-        <f>E177-D177</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3821,7 +3800,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F178" s="1">
-        <f>E178-D178</f>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -3836,7 +3815,7 @@
         <v>10</v>
       </c>
       <c r="F179" s="1">
-        <f>E179-D179</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3857,7 +3836,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F180" s="1">
-        <f>E180-D180</f>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -3878,7 +3857,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F181" s="1">
-        <f>E181-D181</f>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -3899,7 +3878,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F182" s="1">
-        <f>E182-D182</f>
+        <f t="shared" ref="F182:F213" si="7">E182-D182</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3914,7 +3893,7 @@
         <v>14</v>
       </c>
       <c r="F183" s="1">
-        <f>E183-D183</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3929,7 +3908,7 @@
         <v>8</v>
       </c>
       <c r="F184" s="1">
-        <f>E184-D184</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3944,7 +3923,7 @@
         <v>9</v>
       </c>
       <c r="F185" s="1">
-        <f>E185-D185</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3965,7 +3944,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F186" s="1">
-        <f>E186-D186</f>
+        <f t="shared" si="7"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -3986,7 +3965,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F187" s="1">
-        <f>E187-D187</f>
+        <f t="shared" si="7"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4007,7 +3986,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F188" s="1">
-        <f>E188-D188</f>
+        <f t="shared" si="7"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4028,7 +4007,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F189" s="1">
-        <f>E189-D189</f>
+        <f t="shared" si="7"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4043,7 +4022,7 @@
         <v>14</v>
       </c>
       <c r="F190" s="1">
-        <f>E190-D190</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4064,7 +4043,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F191" s="1">
-        <f>E191-D191</f>
+        <f t="shared" si="7"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4085,7 +4064,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F192" s="1">
-        <f>E192-D192</f>
+        <f t="shared" si="7"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4106,7 +4085,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F193" s="1">
-        <f>E193-D193</f>
+        <f t="shared" si="7"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4121,7 +4100,7 @@
         <v>11</v>
       </c>
       <c r="F194" s="1">
-        <f>E194-D194</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4136,7 +4115,7 @@
         <v>12</v>
       </c>
       <c r="F195" s="1">
-        <f>E195-D195</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4151,7 +4130,7 @@
         <v>13</v>
       </c>
       <c r="F196" s="1">
-        <f>E196-D196</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4172,7 +4151,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F197" s="1">
-        <f>E197-D197</f>
+        <f t="shared" si="7"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -4187,7 +4166,7 @@
         <v>8</v>
       </c>
       <c r="F198" s="1">
-        <f>E198-D198</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4208,7 +4187,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F199" s="1">
-        <f>E199-D199</f>
+        <f t="shared" si="7"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4229,7 +4208,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F200" s="1">
-        <f>E200-D200</f>
+        <f t="shared" si="7"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -4250,7 +4229,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F201" s="1">
-        <f>E201-D201</f>
+        <f t="shared" si="7"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4271,7 +4250,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F202" s="1">
-        <f>E202-D202</f>
+        <f t="shared" si="7"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4292,7 +4271,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F203" s="1">
-        <f>E203-D203</f>
+        <f t="shared" si="7"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4307,7 +4286,7 @@
         <v>14</v>
       </c>
       <c r="F204" s="1">
-        <f>E204-D204</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4324,7 +4303,7 @@
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1">
-        <f>E205-D205</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4341,7 +4320,7 @@
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1">
-        <f>E206-D206</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4356,7 +4335,7 @@
         <v>10</v>
       </c>
       <c r="F207" s="1">
-        <f>E207-D207</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4373,7 +4352,7 @@
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1">
-        <f>E208-D208</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4390,7 +4369,7 @@
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1">
-        <f>E209-D209</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4407,7 +4386,7 @@
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1">
-        <f>E210-D210</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4422,7 +4401,7 @@
         <v>14</v>
       </c>
       <c r="F211" s="1">
-        <f>E211-D211</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4437,7 +4416,7 @@
         <v>8</v>
       </c>
       <c r="F212" s="1">
-        <f>E212-D212</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4452,7 +4431,7 @@
         <v>9</v>
       </c>
       <c r="F213" s="1">
-        <f>E213-D213</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4473,7 +4452,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F214" s="1">
-        <f>E214-D214</f>
+        <f t="shared" ref="F214:F245" si="8">E214-D214</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4494,7 +4473,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F215" s="1">
-        <f>E215-D215</f>
+        <f t="shared" si="8"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4515,7 +4494,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F216" s="1">
-        <f>E216-D216</f>
+        <f t="shared" si="8"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4532,7 +4511,7 @@
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1">
-        <f>E217-D217</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4547,7 +4526,7 @@
         <v>14</v>
       </c>
       <c r="F218" s="1">
-        <f>E218-D218</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4568,7 +4547,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F219" s="1">
-        <f>E219-D219</f>
+        <f t="shared" si="8"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4577,7 +4556,7 @@
         <v>17</v>
       </c>
       <c r="B220" t="str">
-        <f>B219</f>
+        <f t="shared" ref="B220:B225" si="9">B219</f>
         <v>S48</v>
       </c>
       <c r="C220" t="s">
@@ -4590,7 +4569,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F220" s="1">
-        <f>E220-D220</f>
+        <f t="shared" si="8"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4599,7 +4578,7 @@
         <v>17</v>
       </c>
       <c r="B221" t="str">
-        <f>B220</f>
+        <f t="shared" si="9"/>
         <v>S48</v>
       </c>
       <c r="C221" t="s">
@@ -4608,7 +4587,7 @@
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1">
-        <f>E221-D221</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4617,14 +4596,14 @@
         <v>17</v>
       </c>
       <c r="B222" t="str">
-        <f>B221</f>
+        <f t="shared" si="9"/>
         <v>S48</v>
       </c>
       <c r="C222" t="s">
         <v>11</v>
       </c>
       <c r="F222" s="1">
-        <f>E222-D222</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4633,14 +4612,14 @@
         <v>17</v>
       </c>
       <c r="B223" t="str">
-        <f>B222</f>
+        <f t="shared" si="9"/>
         <v>S48</v>
       </c>
       <c r="C223" t="s">
         <v>12</v>
       </c>
       <c r="F223" s="1">
-        <f>E223-D223</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4649,7 +4628,7 @@
         <v>17</v>
       </c>
       <c r="B224" t="str">
-        <f>B223</f>
+        <f t="shared" si="9"/>
         <v>S48</v>
       </c>
       <c r="C224" t="s">
@@ -4662,7 +4641,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F224" s="1">
-        <f>E224-D224</f>
+        <f t="shared" si="8"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4671,7 +4650,7 @@
         <v>17</v>
       </c>
       <c r="B225" t="str">
-        <f>B224</f>
+        <f t="shared" si="9"/>
         <v>S48</v>
       </c>
       <c r="C225" t="s">
@@ -4684,7 +4663,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F225" s="1">
-        <f>E225-D225</f>
+        <f t="shared" si="8"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -4699,7 +4678,7 @@
         <v>8</v>
       </c>
       <c r="F226" s="1">
-        <f>E226-D226</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4714,7 +4693,7 @@
         <v>9</v>
       </c>
       <c r="F227" s="1">
-        <f>E227-D227</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4729,7 +4708,7 @@
         <v>10</v>
       </c>
       <c r="F228" s="1">
-        <f>E228-D228</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4744,7 +4723,7 @@
         <v>11</v>
       </c>
       <c r="F229" s="1">
-        <f>E229-D229</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4759,7 +4738,7 @@
         <v>12</v>
       </c>
       <c r="F230" s="1">
-        <f>E230-D230</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4774,7 +4753,7 @@
         <v>13</v>
       </c>
       <c r="F231" s="1">
-        <f>E231-D231</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4789,7 +4768,7 @@
         <v>14</v>
       </c>
       <c r="F232" s="1">
-        <f>E232-D232</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4806,7 +4785,7 @@
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1">
-        <f>E233-D233</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4827,7 +4806,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F234" s="1">
-        <f>E234-D234</f>
+        <f t="shared" si="8"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4842,7 +4821,7 @@
         <v>10</v>
       </c>
       <c r="F235" s="1">
-        <f>E235-D235</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4863,7 +4842,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F236" s="1">
-        <f>E236-D236</f>
+        <f t="shared" si="8"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4884,7 +4863,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F237" s="1">
-        <f>E237-D237</f>
+        <f t="shared" si="8"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4905,7 +4884,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F238" s="1">
-        <f>E238-D238</f>
+        <f t="shared" si="8"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4920,7 +4899,7 @@
         <v>14</v>
       </c>
       <c r="F239" s="1">
-        <f>E239-D239</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4935,7 +4914,7 @@
         <v>8</v>
       </c>
       <c r="F240" s="1">
-        <f>E240-D240</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4950,7 +4929,7 @@
         <v>9</v>
       </c>
       <c r="F241" s="1">
-        <f>E241-D241</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4971,7 +4950,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F242" s="1">
-        <f>E242-D242</f>
+        <f t="shared" si="8"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -4992,7 +4971,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F243" s="1">
-        <f>E243-D243</f>
+        <f t="shared" si="8"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5013,7 +4992,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F244" s="1">
-        <f>E244-D244</f>
+        <f t="shared" si="8"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5034,7 +5013,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F245" s="1">
-        <f>E245-D245</f>
+        <f t="shared" si="8"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5049,7 +5028,7 @@
         <v>14</v>
       </c>
       <c r="F246" s="1">
-        <f>E246-D246</f>
+        <f t="shared" ref="F246:F277" si="10">E246-D246</f>
         <v>0</v>
       </c>
     </row>
@@ -5070,7 +5049,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F247" s="1">
-        <f>E247-D247</f>
+        <f t="shared" si="10"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5091,7 +5070,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F248" s="1">
-        <f>E248-D248</f>
+        <f t="shared" si="10"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5112,7 +5091,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F249" s="1">
-        <f>E249-D249</f>
+        <f t="shared" si="10"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5127,7 +5106,7 @@
         <v>11</v>
       </c>
       <c r="F250" s="1">
-        <f>E250-D250</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -5142,7 +5121,7 @@
         <v>12</v>
       </c>
       <c r="F251" s="1">
-        <f>E251-D251</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -5157,7 +5136,7 @@
         <v>13</v>
       </c>
       <c r="F252" s="1">
-        <f>E252-D252</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -5178,7 +5157,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F253" s="1">
-        <f>E253-D253</f>
+        <f t="shared" si="10"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -5187,14 +5166,14 @@
         <v>6</v>
       </c>
       <c r="B254" t="str">
-        <f t="shared" ref="B254:B274" si="3">B253</f>
+        <f t="shared" ref="B254:B274" si="11">B253</f>
         <v>S49</v>
       </c>
       <c r="C254" t="s">
         <v>8</v>
       </c>
       <c r="F254" s="1">
-        <f t="shared" ref="F254:F309" si="4">E254-D254</f>
+        <f t="shared" ref="F254:F309" si="12">E254-D254</f>
         <v>0</v>
       </c>
     </row>
@@ -5203,7 +5182,7 @@
         <v>6</v>
       </c>
       <c r="B255" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C255" t="s">
@@ -5216,7 +5195,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F255" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5225,7 +5204,7 @@
         <v>6</v>
       </c>
       <c r="B256" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C256" t="s">
@@ -5238,7 +5217,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F256" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -5247,7 +5226,7 @@
         <v>6</v>
       </c>
       <c r="B257" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C257" t="s">
@@ -5260,7 +5239,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F257" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5269,7 +5248,7 @@
         <v>6</v>
       </c>
       <c r="B258" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C258" t="s">
@@ -5282,7 +5261,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F258" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5291,7 +5270,7 @@
         <v>6</v>
       </c>
       <c r="B259" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C259" t="s">
@@ -5304,7 +5283,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F259" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5313,14 +5292,14 @@
         <v>6</v>
       </c>
       <c r="B260" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C260" t="s">
         <v>14</v>
       </c>
       <c r="F260" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5329,7 +5308,7 @@
         <v>15</v>
       </c>
       <c r="B261" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C261" t="s">
@@ -5338,7 +5317,7 @@
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5347,7 +5326,7 @@
         <v>15</v>
       </c>
       <c r="B262" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C262" t="s">
@@ -5356,7 +5335,7 @@
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5365,14 +5344,14 @@
         <v>15</v>
       </c>
       <c r="B263" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C263" t="s">
         <v>10</v>
       </c>
       <c r="F263" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5381,7 +5360,7 @@
         <v>15</v>
       </c>
       <c r="B264" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C264" t="s">
@@ -5390,7 +5369,7 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5399,7 +5378,7 @@
         <v>15</v>
       </c>
       <c r="B265" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C265" t="s">
@@ -5408,7 +5387,7 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5417,7 +5396,7 @@
         <v>15</v>
       </c>
       <c r="B266" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C266" t="s">
@@ -5426,7 +5405,7 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5435,14 +5414,14 @@
         <v>15</v>
       </c>
       <c r="B267" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C267" t="s">
         <v>14</v>
       </c>
       <c r="F267" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5451,14 +5430,14 @@
         <v>16</v>
       </c>
       <c r="B268" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C268" t="s">
         <v>8</v>
       </c>
       <c r="F268" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5467,14 +5446,14 @@
         <v>16</v>
       </c>
       <c r="B269" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C269" t="s">
         <v>9</v>
       </c>
       <c r="F269" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5483,7 +5462,7 @@
         <v>16</v>
       </c>
       <c r="B270" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C270" t="s">
@@ -5496,7 +5475,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F270" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5505,7 +5484,7 @@
         <v>16</v>
       </c>
       <c r="B271" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C271" t="s">
@@ -5518,7 +5497,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F271" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5527,7 +5506,7 @@
         <v>16</v>
       </c>
       <c r="B272" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C272" t="s">
@@ -5540,7 +5519,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F272" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5549,7 +5528,7 @@
         <v>16</v>
       </c>
       <c r="B273" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C273" t="s">
@@ -5558,7 +5537,7 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5567,14 +5546,14 @@
         <v>16</v>
       </c>
       <c r="B274" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>S49</v>
       </c>
       <c r="C274" t="s">
         <v>14</v>
       </c>
       <c r="F274" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5595,7 +5574,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F275" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5604,7 +5583,7 @@
         <v>17</v>
       </c>
       <c r="B276" t="str">
-        <f t="shared" ref="B276:B302" si="5">B275</f>
+        <f t="shared" ref="B276:B302" si="13">B275</f>
         <v>S50</v>
       </c>
       <c r="C276" t="s">
@@ -5617,7 +5596,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F276" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5626,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="B277" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C277" t="s">
@@ -5635,7 +5614,7 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5644,14 +5623,14 @@
         <v>17</v>
       </c>
       <c r="B278" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C278" t="s">
         <v>11</v>
       </c>
       <c r="F278" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5660,14 +5639,14 @@
         <v>17</v>
       </c>
       <c r="B279" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C279" t="s">
         <v>12</v>
       </c>
       <c r="F279" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5676,7 +5655,7 @@
         <v>17</v>
       </c>
       <c r="B280" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C280" t="s">
@@ -5689,7 +5668,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F280" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5698,7 +5677,7 @@
         <v>17</v>
       </c>
       <c r="B281" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C281" t="s">
@@ -5711,7 +5690,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F281" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -5720,14 +5699,14 @@
         <v>6</v>
       </c>
       <c r="B282" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C282" t="s">
         <v>8</v>
       </c>
       <c r="F282" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5736,7 +5715,7 @@
         <v>6</v>
       </c>
       <c r="B283" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C283" t="s">
@@ -5749,7 +5728,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F283" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5758,7 +5737,7 @@
         <v>6</v>
       </c>
       <c r="B284" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C284" t="s">
@@ -5771,7 +5750,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F284" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -5780,7 +5759,7 @@
         <v>6</v>
       </c>
       <c r="B285" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C285" t="s">
@@ -5793,7 +5772,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F285" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5802,7 +5781,7 @@
         <v>6</v>
       </c>
       <c r="B286" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C286" t="s">
@@ -5815,7 +5794,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F286" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5824,7 +5803,7 @@
         <v>6</v>
       </c>
       <c r="B287" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C287" t="s">
@@ -5837,7 +5816,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F287" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5846,14 +5825,14 @@
         <v>6</v>
       </c>
       <c r="B288" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C288" t="s">
         <v>14</v>
       </c>
       <c r="F288" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5862,7 +5841,7 @@
         <v>15</v>
       </c>
       <c r="B289" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C289" t="s">
@@ -5875,7 +5854,7 @@
         <v>0.75</v>
       </c>
       <c r="F289" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.27083333333333331</v>
       </c>
     </row>
@@ -5884,7 +5863,7 @@
         <v>15</v>
       </c>
       <c r="B290" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C290" t="s">
@@ -5893,7 +5872,7 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5902,7 +5881,7 @@
         <v>15</v>
       </c>
       <c r="B291" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C291" t="s">
@@ -5915,7 +5894,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F291" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -5924,7 +5903,7 @@
         <v>15</v>
       </c>
       <c r="B292" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C292" t="s">
@@ -5937,7 +5916,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F292" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5946,7 +5925,7 @@
         <v>15</v>
       </c>
       <c r="B293" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C293" t="s">
@@ -5959,7 +5938,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F293" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -5968,7 +5947,7 @@
         <v>15</v>
       </c>
       <c r="B294" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C294" t="s">
@@ -5981,7 +5960,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F294" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5990,14 +5969,14 @@
         <v>15</v>
       </c>
       <c r="B295" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C295" t="s">
         <v>14</v>
       </c>
       <c r="F295" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6006,14 +5985,14 @@
         <v>16</v>
       </c>
       <c r="B296" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C296" t="s">
         <v>8</v>
       </c>
       <c r="F296" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6022,14 +6001,14 @@
         <v>16</v>
       </c>
       <c r="B297" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C297" t="s">
         <v>9</v>
       </c>
       <c r="F297" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6038,7 +6017,7 @@
         <v>16</v>
       </c>
       <c r="B298" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C298" t="s">
@@ -6047,7 +6026,7 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6056,7 +6035,7 @@
         <v>16</v>
       </c>
       <c r="B299" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C299" t="s">
@@ -6069,7 +6048,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F299" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6078,7 +6057,7 @@
         <v>16</v>
       </c>
       <c r="B300" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C300" t="s">
@@ -6091,7 +6070,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F300" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6100,7 +6079,7 @@
         <v>16</v>
       </c>
       <c r="B301" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C301" t="s">
@@ -6113,7 +6092,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F301" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6122,14 +6101,14 @@
         <v>16</v>
       </c>
       <c r="B302" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>S50</v>
       </c>
       <c r="C302" t="s">
         <v>14</v>
       </c>
       <c r="F302" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6150,7 +6129,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F303" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6159,7 +6138,7 @@
         <v>17</v>
       </c>
       <c r="B304" t="str">
-        <f t="shared" ref="B304:B309" si="6">B303</f>
+        <f t="shared" ref="B304:B309" si="14">B303</f>
         <v>S51</v>
       </c>
       <c r="C304" t="s">
@@ -6172,7 +6151,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F304" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6181,7 +6160,7 @@
         <v>17</v>
       </c>
       <c r="B305" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>S51</v>
       </c>
       <c r="C305" t="s">
@@ -6194,7 +6173,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F305" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6203,14 +6182,14 @@
         <v>17</v>
       </c>
       <c r="B306" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>S51</v>
       </c>
       <c r="C306" t="s">
         <v>11</v>
       </c>
       <c r="F306" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6219,14 +6198,14 @@
         <v>17</v>
       </c>
       <c r="B307" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>S51</v>
       </c>
       <c r="C307" t="s">
         <v>12</v>
       </c>
       <c r="F307" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6235,7 +6214,7 @@
         <v>17</v>
       </c>
       <c r="B308" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>S51</v>
       </c>
       <c r="C308" t="s">
@@ -6244,7 +6223,7 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6253,7 +6232,7 @@
         <v>17</v>
       </c>
       <c r="B309" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>S51</v>
       </c>
       <c r="C309" t="s">
@@ -6266,7 +6245,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F309" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -6296,7 +6275,7 @@
         <v>17</v>
       </c>
       <c r="B311" t="str">
-        <f>B310</f>
+        <f t="shared" ref="B311:B337" si="15">B310</f>
         <v>S52</v>
       </c>
       <c r="C311" t="s">
@@ -6309,7 +6288,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F311" s="1">
-        <f>E311-D311</f>
+        <f t="shared" ref="F311:F337" si="16">E311-D311</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6318,7 +6297,7 @@
         <v>17</v>
       </c>
       <c r="B312" t="str">
-        <f>B311</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C312" t="s">
@@ -6331,7 +6310,7 @@
         <v>0.75</v>
       </c>
       <c r="F312" s="1">
-        <f>E312-D312</f>
+        <f t="shared" si="16"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -6340,7 +6319,7 @@
         <v>17</v>
       </c>
       <c r="B313" t="str">
-        <f>B312</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C313" t="s">
@@ -6349,7 +6328,7 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1">
-        <f>E313-D313</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6358,7 +6337,7 @@
         <v>17</v>
       </c>
       <c r="B314" t="str">
-        <f>B313</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C314" t="s">
@@ -6367,7 +6346,7 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1">
-        <f>E314-D314</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6376,7 +6355,7 @@
         <v>17</v>
       </c>
       <c r="B315" t="str">
-        <f>B314</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C315" t="s">
@@ -6385,7 +6364,7 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1">
-        <f>E315-D315</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6394,7 +6373,7 @@
         <v>17</v>
       </c>
       <c r="B316" t="str">
-        <f>B315</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C316" t="s">
@@ -6407,7 +6386,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F316" s="1">
-        <f>E316-D316</f>
+        <f t="shared" si="16"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -6416,7 +6395,7 @@
         <v>16</v>
       </c>
       <c r="B317" t="str">
-        <f>B316</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C317" t="s">
@@ -6425,7 +6404,7 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1">
-        <f>E317-D317</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6434,7 +6413,7 @@
         <v>16</v>
       </c>
       <c r="B318" t="str">
-        <f>B317</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C318" t="s">
@@ -6443,7 +6422,7 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1">
-        <f>E318-D318</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6452,7 +6431,7 @@
         <v>16</v>
       </c>
       <c r="B319" t="str">
-        <f>B318</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C319" t="s">
@@ -6461,7 +6440,7 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1">
-        <f>E319-D319</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6470,7 +6449,7 @@
         <v>16</v>
       </c>
       <c r="B320" t="str">
-        <f>B319</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C320" t="s">
@@ -6479,7 +6458,7 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1">
-        <f>E320-D320</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6488,7 +6467,7 @@
         <v>16</v>
       </c>
       <c r="B321" t="str">
-        <f>B320</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C321" t="s">
@@ -6501,7 +6480,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F321" s="1">
-        <f>E321-D321</f>
+        <f t="shared" si="16"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6510,7 +6489,7 @@
         <v>16</v>
       </c>
       <c r="B322" t="str">
-        <f>B321</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C322" t="s">
@@ -6523,7 +6502,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F322" s="1">
-        <f>E322-D322</f>
+        <f t="shared" si="16"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6532,7 +6511,7 @@
         <v>16</v>
       </c>
       <c r="B323" t="str">
-        <f>B322</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C323" t="s">
@@ -6541,7 +6520,7 @@
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1">
-        <f>E323-D323</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6550,7 +6529,7 @@
         <v>15</v>
       </c>
       <c r="B324" t="str">
-        <f>B323</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C324" t="s">
@@ -6559,7 +6538,7 @@
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1">
-        <f>E324-D324</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6568,7 +6547,7 @@
         <v>15</v>
       </c>
       <c r="B325" t="str">
-        <f>B324</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C325" t="s">
@@ -6581,7 +6560,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F325" s="1">
-        <f>E325-D325</f>
+        <f t="shared" si="16"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -6590,7 +6569,7 @@
         <v>15</v>
       </c>
       <c r="B326" t="str">
-        <f>B325</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C326" t="s">
@@ -6603,7 +6582,7 @@
         <v>0.75</v>
       </c>
       <c r="F326" s="1">
-        <f>E326-D326</f>
+        <f t="shared" si="16"/>
         <v>0.3125</v>
       </c>
     </row>
@@ -6612,7 +6591,7 @@
         <v>15</v>
       </c>
       <c r="B327" t="str">
-        <f>B326</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C327" t="s">
@@ -6621,7 +6600,7 @@
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1">
-        <f>E327-D327</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6630,7 +6609,7 @@
         <v>15</v>
       </c>
       <c r="B328" t="str">
-        <f>B327</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C328" t="s">
@@ -6643,7 +6622,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F328" s="1">
-        <f>E328-D328</f>
+        <f t="shared" si="16"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -6652,7 +6631,7 @@
         <v>15</v>
       </c>
       <c r="B329" t="str">
-        <f>B328</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C329" t="s">
@@ -6665,7 +6644,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F329" s="1">
-        <f>E329-D329</f>
+        <f t="shared" si="16"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6674,7 +6653,7 @@
         <v>15</v>
       </c>
       <c r="B330" t="str">
-        <f>B329</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C330" t="s">
@@ -6683,7 +6662,7 @@
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1">
-        <f>E330-D330</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6692,7 +6671,7 @@
         <v>6</v>
       </c>
       <c r="B331" t="str">
-        <f>B330</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C331" t="s">
@@ -6705,7 +6684,7 @@
         <v>0.75</v>
       </c>
       <c r="F331" s="1">
-        <f>E331-D331</f>
+        <f t="shared" si="16"/>
         <v>0.27083333333333331</v>
       </c>
     </row>
@@ -6714,7 +6693,7 @@
         <v>6</v>
       </c>
       <c r="B332" t="str">
-        <f>B331</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C332" t="s">
@@ -6723,7 +6702,7 @@
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1">
-        <f>E332-D332</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6732,7 +6711,7 @@
         <v>6</v>
       </c>
       <c r="B333" t="str">
-        <f>B332</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C333" t="s">
@@ -6745,7 +6724,7 @@
         <v>0.75</v>
       </c>
       <c r="F333" s="1">
-        <f>E333-D333</f>
+        <f t="shared" si="16"/>
         <v>0.3125</v>
       </c>
     </row>
@@ -6754,7 +6733,7 @@
         <v>6</v>
       </c>
       <c r="B334" t="str">
-        <f>B333</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C334" t="s">
@@ -6763,7 +6742,7 @@
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1">
-        <f>E334-D334</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6772,7 +6751,7 @@
         <v>6</v>
       </c>
       <c r="B335" t="str">
-        <f>B334</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C335" t="s">
@@ -6785,7 +6764,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F335" s="1">
-        <f>E335-D335</f>
+        <f t="shared" si="16"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -6794,7 +6773,7 @@
         <v>6</v>
       </c>
       <c r="B336" t="str">
-        <f>B335</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C336" t="s">
@@ -6807,7 +6786,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F336" s="1">
-        <f>E336-D336</f>
+        <f t="shared" si="16"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6816,7 +6795,7 @@
         <v>6</v>
       </c>
       <c r="B337" t="str">
-        <f>B336</f>
+        <f t="shared" si="15"/>
         <v>S52</v>
       </c>
       <c r="C337" t="s">
@@ -6825,7 +6804,7 @@
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1">
-        <f>E337-D337</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienbeguin/Desktop/Mon_App_Planning_Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FDD4A1-7BF7-784C-AF24-F51C941F22EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E068576-ED2B-A64F-A596-FD245EAD06EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="2700" windowWidth="11280" windowHeight="16940" xr2:uid="{69F5D6A4-E2E0-1044-9F99-AFEFC3369136}"/>
+    <workbookView xWindow="13040" yWindow="1740" windowWidth="33120" windowHeight="16940" xr2:uid="{69F5D6A4-E2E0-1044-9F99-AFEFC3369136}"/>
   </bookViews>
   <sheets>
     <sheet name="De la S41 à la S52" sheetId="1" r:id="rId1"/>
@@ -279,8 +279,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{159EAC6A-6252-B246-9CAC-71A096134D8C}" name="Tableau1" displayName="Tableau1" ref="A1:F337" totalsRowShown="0">
   <autoFilter ref="A1:F337" xr:uid="{159EAC6A-6252-B246-9CAC-71A096134D8C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F29">
-    <sortCondition ref="A1:A29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A30:F57">
+    <sortCondition descending="1" ref="A1:A337"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{ECF9E220-7151-B047-81E5-BB048C569DF8}" name="NOM VENDEUR"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF17394-328A-A34F-A5DB-16323C78C5F4}">
   <dimension ref="A1:F337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:F57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -1145,101 +1145,96 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
+      <c r="D30" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E30-D30</f>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B31" t="str">
+        <f>B30</f>
+        <v>S42</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="1">
-        <v>0.47916666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E31" s="1">
         <v>0.79166666666666663</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>0.31249999999999994</v>
+        <f>E31-D31</f>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B32" t="str">
+        <f>B31</f>
+        <v>S42</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.79166666666666663</v>
-      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35416666666666663</v>
+        <f>E32-D32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B33" t="str">
+        <f>B32</f>
+        <v>S42</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="1">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.79166666666666663</v>
-      </c>
       <c r="F33" s="1">
-        <f t="shared" si="0"/>
-        <v>0.31249999999999994</v>
+        <f>E33-D33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B34" t="str">
+        <f>B33</f>
+        <v>S42</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="1">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.79166666666666663</v>
-      </c>
       <c r="F34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.31249999999999994</v>
+        <f>E34-D34</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B35" t="str">
+        <f>B34</f>
+        <v>S42</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -1251,28 +1246,35 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="0"/>
+        <f>E35-D35</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B36" t="str">
+        <f>B35</f>
+        <v>S42</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
+      <c r="D36" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F36" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E36-D36</f>
+        <v>0.12499999999999994</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
@@ -1280,16 +1282,14 @@
       <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
       <c r="F37" s="1">
-        <f t="shared" si="0"/>
+        <f>E37-D37</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -1297,16 +1297,14 @@
       <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
       <c r="F38" s="1">
-        <f t="shared" si="0"/>
+        <f>E38-D38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
@@ -1314,14 +1312,20 @@
       <c r="C39" t="s">
         <v>10</v>
       </c>
+      <c r="D39" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F39" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E39-D39</f>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
@@ -1329,16 +1333,20 @@
       <c r="C40" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="D40" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F40" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E40-D40</f>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
@@ -1346,16 +1354,20 @@
       <c r="C41" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="D41" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F41" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E41-D41</f>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
@@ -1366,13 +1378,13 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1">
-        <f t="shared" si="0"/>
+        <f>E42-D42</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -1381,13 +1393,13 @@
         <v>14</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="0"/>
+        <f>E43-D43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -1395,14 +1407,16 @@
       <c r="C44" t="s">
         <v>8</v>
       </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
       <c r="F44" s="1">
-        <f t="shared" si="0"/>
+        <f>E44-D44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
@@ -1410,14 +1424,16 @@
       <c r="C45" t="s">
         <v>9</v>
       </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
       <c r="F45" s="1">
-        <f t="shared" si="0"/>
+        <f>E45-D45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
@@ -1425,20 +1441,14 @@
       <c r="C46" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0.79166666666666663</v>
-      </c>
       <c r="F46" s="1">
-        <f t="shared" si="0"/>
-        <v>0.37499999999999994</v>
+        <f>E46-D46</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
@@ -1446,20 +1456,16 @@
       <c r="C47" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.79166666666666663</v>
-      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="1">
-        <f t="shared" si="0"/>
-        <v>0.37499999999999994</v>
+        <f>E47-D47</f>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
@@ -1467,20 +1473,16 @@
       <c r="C48" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0.79166666666666663</v>
-      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1">
-        <f t="shared" si="0"/>
-        <v>0.37499999999999994</v>
+        <f>E48-D48</f>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
@@ -1491,13 +1493,13 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1">
-        <f t="shared" si="0"/>
+        <f>E49-D49</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
@@ -1506,13 +1508,13 @@
         <v>14</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="0"/>
+        <f>E50-D50</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
@@ -1520,96 +1522,101 @@
       <c r="C51" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0.79166666666666663</v>
-      </c>
       <c r="F51" s="1">
-        <f t="shared" si="0"/>
-        <v>0.37499999999999994</v>
+        <f>E51-D51</f>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" t="str">
-        <f t="shared" ref="B52:B57" si="1">B51</f>
-        <v>S42</v>
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E52" s="1">
         <v>0.79166666666666663</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="0"/>
-        <v>0.37499999999999994</v>
+        <f>E52-D52</f>
+        <v>0.31249999999999994</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" t="str">
-        <f t="shared" si="1"/>
-        <v>S42</v>
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="D53" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F53" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E53-D53</f>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" t="str">
-        <f t="shared" si="1"/>
-        <v>S42</v>
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
       </c>
+      <c r="D54" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F54" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E54-D54</f>
+        <v>0.31249999999999994</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" t="str">
-        <f t="shared" si="1"/>
-        <v>S42</v>
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
+      <c r="D55" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F55" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E55-D55</f>
+        <v>0.31249999999999994</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" t="str">
-        <f t="shared" si="1"/>
-        <v>S42</v>
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -1621,30 +1628,23 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="0"/>
+        <f>E56-D56</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" t="str">
-        <f t="shared" si="1"/>
-        <v>S42</v>
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0.54166666666666663</v>
-      </c>
       <c r="F57" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12499999999999994</v>
+        <f>E57-D57</f>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2154,7 +2154,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" ref="F86:F117" si="2">E86-D86</f>
+        <f t="shared" ref="F86:F117" si="1">E86-D86</f>
         <v>0</v>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
         <v>14</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
         <v>10</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
         <v>14</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2404,7 +2404,7 @@
         <v>8</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
         <v>9</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
         <v>14</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
         <v>17</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" ref="B108:B113" si="3">B107</f>
+        <f t="shared" ref="B108:B113" si="2">B107</f>
         <v>S44</v>
       </c>
       <c r="C108" t="s">
@@ -2557,7 +2557,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
         <v>17</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>S44</v>
       </c>
       <c r="C109" t="s">
@@ -2575,7 +2575,7 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2584,14 +2584,14 @@
         <v>17</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>S44</v>
       </c>
       <c r="C110" t="s">
         <v>11</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2600,14 +2600,14 @@
         <v>17</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>S44</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
         <v>17</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>S44</v>
       </c>
       <c r="C112" t="s">
@@ -2629,7 +2629,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F112" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
         <v>17</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>S44</v>
       </c>
       <c r="C113" t="s">
@@ -2651,7 +2651,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
         <v>8</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
         <v>9</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
         <v>10</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
         <v>11</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" ref="F118:F149" si="4">E118-D118</f>
+        <f t="shared" ref="F118:F149" si="3">E118-D118</f>
         <v>0</v>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
         <v>13</v>
       </c>
       <c r="F119" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
         <v>14</v>
       </c>
       <c r="F120" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F122" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F124" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F126" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
         <v>14</v>
       </c>
       <c r="F127" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
         <v>8</v>
       </c>
       <c r="F128" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
         <v>9</v>
       </c>
       <c r="F129" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F130" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F131" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2980,7 +2980,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F132" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F133" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
         <v>14</v>
       </c>
       <c r="F134" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F135" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F136" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F137" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
         <v>11</v>
       </c>
       <c r="F138" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
         <v>12</v>
       </c>
       <c r="F139" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
         <v>13</v>
       </c>
       <c r="F140" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3145,7 +3145,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F141" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -3160,7 +3160,7 @@
         <v>8</v>
       </c>
       <c r="F142" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F143" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -3202,7 +3202,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F144" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F145" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F146" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F147" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
         <v>14</v>
       </c>
       <c r="F148" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1">
-        <f t="shared" ref="F150:F181" si="5">E150-D150</f>
+        <f t="shared" ref="F150:F181" si="4">E150-D150</f>
         <v>0</v>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
         <v>10</v>
       </c>
       <c r="F151" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
         <v>14</v>
       </c>
       <c r="F155" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3410,7 +3410,7 @@
         <v>8</v>
       </c>
       <c r="F156" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
         <v>9</v>
       </c>
       <c r="F157" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F158" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F159" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F160" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3505,7 +3505,7 @@
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3520,7 +3520,7 @@
         <v>14</v>
       </c>
       <c r="F162" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F163" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3550,7 +3550,7 @@
         <v>17</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" ref="B164:B169" si="6">B163</f>
+        <f t="shared" ref="B164:B169" si="5">B163</f>
         <v>S46</v>
       </c>
       <c r="C164" t="s">
@@ -3563,7 +3563,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F164" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3572,7 +3572,7 @@
         <v>17</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>S46</v>
       </c>
       <c r="C165" t="s">
@@ -3581,7 +3581,7 @@
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3590,14 +3590,14 @@
         <v>17</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>S46</v>
       </c>
       <c r="C166" t="s">
         <v>11</v>
       </c>
       <c r="F166" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3606,14 +3606,14 @@
         <v>17</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>S46</v>
       </c>
       <c r="C167" t="s">
         <v>12</v>
       </c>
       <c r="F167" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3622,7 +3622,7 @@
         <v>17</v>
       </c>
       <c r="B168" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>S46</v>
       </c>
       <c r="C168" t="s">
@@ -3635,7 +3635,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F168" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
         <v>17</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>S46</v>
       </c>
       <c r="C169" t="s">
@@ -3657,7 +3657,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F169" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
         <v>8</v>
       </c>
       <c r="F170" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
         <v>9</v>
       </c>
       <c r="F171" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3702,7 +3702,7 @@
         <v>10</v>
       </c>
       <c r="F172" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
         <v>11</v>
       </c>
       <c r="F173" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3732,7 +3732,7 @@
         <v>12</v>
       </c>
       <c r="F174" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
         <v>13</v>
       </c>
       <c r="F175" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
         <v>14</v>
       </c>
       <c r="F176" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3800,7 +3800,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F178" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
         <v>10</v>
       </c>
       <c r="F179" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F180" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F181" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F182" s="1">
-        <f t="shared" ref="F182:F213" si="7">E182-D182</f>
+        <f t="shared" ref="F182:F213" si="6">E182-D182</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3893,7 +3893,7 @@
         <v>14</v>
       </c>
       <c r="F183" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
         <v>8</v>
       </c>
       <c r="F184" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3923,7 +3923,7 @@
         <v>9</v>
       </c>
       <c r="F185" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F186" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F187" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F188" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F189" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4022,7 +4022,7 @@
         <v>14</v>
       </c>
       <c r="F190" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F191" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F192" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4085,7 +4085,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F193" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4100,7 +4100,7 @@
         <v>11</v>
       </c>
       <c r="F194" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
         <v>12</v>
       </c>
       <c r="F195" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4130,7 +4130,7 @@
         <v>13</v>
       </c>
       <c r="F196" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F197" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
         <v>8</v>
       </c>
       <c r="F198" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F199" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4208,7 +4208,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F200" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F201" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F202" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F203" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
         <v>14</v>
       </c>
       <c r="F204" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4303,7 +4303,7 @@
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4320,7 +4320,7 @@
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
         <v>10</v>
       </c>
       <c r="F207" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4369,7 +4369,7 @@
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
         <v>14</v>
       </c>
       <c r="F211" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4416,7 +4416,7 @@
         <v>8</v>
       </c>
       <c r="F212" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
         <v>9</v>
       </c>
       <c r="F213" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F214" s="1">
-        <f t="shared" ref="F214:F245" si="8">E214-D214</f>
+        <f t="shared" ref="F214:F245" si="7">E214-D214</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F215" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F216" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
         <v>14</v>
       </c>
       <c r="F218" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F219" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
         <v>17</v>
       </c>
       <c r="B220" t="str">
-        <f t="shared" ref="B220:B225" si="9">B219</f>
+        <f t="shared" ref="B220:B225" si="8">B219</f>
         <v>S48</v>
       </c>
       <c r="C220" t="s">
@@ -4569,7 +4569,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F220" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
         <v>17</v>
       </c>
       <c r="B221" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>S48</v>
       </c>
       <c r="C221" t="s">
@@ -4587,7 +4587,7 @@
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4596,14 +4596,14 @@
         <v>17</v>
       </c>
       <c r="B222" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>S48</v>
       </c>
       <c r="C222" t="s">
         <v>11</v>
       </c>
       <c r="F222" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4612,14 +4612,14 @@
         <v>17</v>
       </c>
       <c r="B223" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>S48</v>
       </c>
       <c r="C223" t="s">
         <v>12</v>
       </c>
       <c r="F223" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
         <v>17</v>
       </c>
       <c r="B224" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>S48</v>
       </c>
       <c r="C224" t="s">
@@ -4641,7 +4641,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F224" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4650,7 +4650,7 @@
         <v>17</v>
       </c>
       <c r="B225" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>S48</v>
       </c>
       <c r="C225" t="s">
@@ -4663,7 +4663,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F225" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
         <v>8</v>
       </c>
       <c r="F226" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
         <v>9</v>
       </c>
       <c r="F227" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4708,7 +4708,7 @@
         <v>10</v>
       </c>
       <c r="F228" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
         <v>11</v>
       </c>
       <c r="F229" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4738,7 +4738,7 @@
         <v>12</v>
       </c>
       <c r="F230" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4753,7 +4753,7 @@
         <v>13</v>
       </c>
       <c r="F231" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
         <v>14</v>
       </c>
       <c r="F232" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4806,7 +4806,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F234" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
         <v>10</v>
       </c>
       <c r="F235" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4842,7 +4842,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F236" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F237" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F238" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4899,7 +4899,7 @@
         <v>14</v>
       </c>
       <c r="F239" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4914,7 +4914,7 @@
         <v>8</v>
       </c>
       <c r="F240" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
         <v>9</v>
       </c>
       <c r="F241" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4950,7 +4950,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F242" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F243" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F244" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F245" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
         <v>14</v>
       </c>
       <c r="F246" s="1">
-        <f t="shared" ref="F246:F277" si="10">E246-D246</f>
+        <f t="shared" ref="F246:F253" si="9">E246-D246</f>
         <v>0</v>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F247" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F248" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F249" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5106,7 +5106,7 @@
         <v>11</v>
       </c>
       <c r="F250" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
         <v>12</v>
       </c>
       <c r="F251" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5136,7 +5136,7 @@
         <v>13</v>
       </c>
       <c r="F252" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F253" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -5166,14 +5166,14 @@
         <v>6</v>
       </c>
       <c r="B254" t="str">
-        <f t="shared" ref="B254:B274" si="11">B253</f>
+        <f t="shared" ref="B254:B274" si="10">B253</f>
         <v>S49</v>
       </c>
       <c r="C254" t="s">
         <v>8</v>
       </c>
       <c r="F254" s="1">
-        <f t="shared" ref="F254:F309" si="12">E254-D254</f>
+        <f t="shared" ref="F254:F309" si="11">E254-D254</f>
         <v>0</v>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
         <v>6</v>
       </c>
       <c r="B255" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C255" t="s">
@@ -5195,7 +5195,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F255" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
         <v>6</v>
       </c>
       <c r="B256" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C256" t="s">
@@ -5217,7 +5217,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F256" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -5226,7 +5226,7 @@
         <v>6</v>
       </c>
       <c r="B257" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C257" t="s">
@@ -5239,7 +5239,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F257" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
         <v>6</v>
       </c>
       <c r="B258" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C258" t="s">
@@ -5261,7 +5261,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F258" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5270,7 +5270,7 @@
         <v>6</v>
       </c>
       <c r="B259" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C259" t="s">
@@ -5283,7 +5283,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F259" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5292,14 +5292,14 @@
         <v>6</v>
       </c>
       <c r="B260" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C260" t="s">
         <v>14</v>
       </c>
       <c r="F260" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
         <v>15</v>
       </c>
       <c r="B261" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C261" t="s">
@@ -5317,7 +5317,7 @@
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5326,7 +5326,7 @@
         <v>15</v>
       </c>
       <c r="B262" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C262" t="s">
@@ -5335,7 +5335,7 @@
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5344,14 +5344,14 @@
         <v>15</v>
       </c>
       <c r="B263" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C263" t="s">
         <v>10</v>
       </c>
       <c r="F263" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5360,7 +5360,7 @@
         <v>15</v>
       </c>
       <c r="B264" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C264" t="s">
@@ -5369,7 +5369,7 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5378,7 +5378,7 @@
         <v>15</v>
       </c>
       <c r="B265" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C265" t="s">
@@ -5387,7 +5387,7 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
         <v>15</v>
       </c>
       <c r="B266" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C266" t="s">
@@ -5405,7 +5405,7 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5414,14 +5414,14 @@
         <v>15</v>
       </c>
       <c r="B267" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C267" t="s">
         <v>14</v>
       </c>
       <c r="F267" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5430,14 +5430,14 @@
         <v>16</v>
       </c>
       <c r="B268" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C268" t="s">
         <v>8</v>
       </c>
       <c r="F268" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5446,14 +5446,14 @@
         <v>16</v>
       </c>
       <c r="B269" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C269" t="s">
         <v>9</v>
       </c>
       <c r="F269" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5462,7 +5462,7 @@
         <v>16</v>
       </c>
       <c r="B270" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C270" t="s">
@@ -5475,7 +5475,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F270" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5484,7 +5484,7 @@
         <v>16</v>
       </c>
       <c r="B271" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C271" t="s">
@@ -5497,7 +5497,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F271" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5506,7 +5506,7 @@
         <v>16</v>
       </c>
       <c r="B272" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C272" t="s">
@@ -5519,7 +5519,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F272" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5528,7 +5528,7 @@
         <v>16</v>
       </c>
       <c r="B273" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C273" t="s">
@@ -5537,7 +5537,7 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5546,14 +5546,14 @@
         <v>16</v>
       </c>
       <c r="B274" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>S49</v>
       </c>
       <c r="C274" t="s">
         <v>14</v>
       </c>
       <c r="F274" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5574,7 +5574,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F275" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5583,7 +5583,7 @@
         <v>17</v>
       </c>
       <c r="B276" t="str">
-        <f t="shared" ref="B276:B302" si="13">B275</f>
+        <f t="shared" ref="B276:B302" si="12">B275</f>
         <v>S50</v>
       </c>
       <c r="C276" t="s">
@@ -5596,7 +5596,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F276" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="B277" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C277" t="s">
@@ -5614,7 +5614,7 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5623,14 +5623,14 @@
         <v>17</v>
       </c>
       <c r="B278" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C278" t="s">
         <v>11</v>
       </c>
       <c r="F278" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5639,14 +5639,14 @@
         <v>17</v>
       </c>
       <c r="B279" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C279" t="s">
         <v>12</v>
       </c>
       <c r="F279" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
         <v>17</v>
       </c>
       <c r="B280" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C280" t="s">
@@ -5668,7 +5668,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F280" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5677,7 +5677,7 @@
         <v>17</v>
       </c>
       <c r="B281" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C281" t="s">
@@ -5690,7 +5690,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F281" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -5699,14 +5699,14 @@
         <v>6</v>
       </c>
       <c r="B282" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C282" t="s">
         <v>8</v>
       </c>
       <c r="F282" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5715,7 +5715,7 @@
         <v>6</v>
       </c>
       <c r="B283" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C283" t="s">
@@ -5728,7 +5728,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F283" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5737,7 +5737,7 @@
         <v>6</v>
       </c>
       <c r="B284" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C284" t="s">
@@ -5750,7 +5750,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F284" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -5759,7 +5759,7 @@
         <v>6</v>
       </c>
       <c r="B285" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C285" t="s">
@@ -5772,7 +5772,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F285" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
         <v>6</v>
       </c>
       <c r="B286" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C286" t="s">
@@ -5794,7 +5794,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F286" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5803,7 +5803,7 @@
         <v>6</v>
       </c>
       <c r="B287" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C287" t="s">
@@ -5816,7 +5816,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F287" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5825,14 +5825,14 @@
         <v>6</v>
       </c>
       <c r="B288" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C288" t="s">
         <v>14</v>
       </c>
       <c r="F288" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
         <v>15</v>
       </c>
       <c r="B289" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C289" t="s">
@@ -5854,7 +5854,7 @@
         <v>0.75</v>
       </c>
       <c r="F289" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.27083333333333331</v>
       </c>
     </row>
@@ -5863,7 +5863,7 @@
         <v>15</v>
       </c>
       <c r="B290" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C290" t="s">
@@ -5872,7 +5872,7 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
         <v>15</v>
       </c>
       <c r="B291" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C291" t="s">
@@ -5894,7 +5894,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F291" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -5903,7 +5903,7 @@
         <v>15</v>
       </c>
       <c r="B292" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C292" t="s">
@@ -5916,7 +5916,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F292" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
         <v>15</v>
       </c>
       <c r="B293" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C293" t="s">
@@ -5938,7 +5938,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F293" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -5947,7 +5947,7 @@
         <v>15</v>
       </c>
       <c r="B294" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C294" t="s">
@@ -5960,7 +5960,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F294" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5969,14 +5969,14 @@
         <v>15</v>
       </c>
       <c r="B295" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C295" t="s">
         <v>14</v>
       </c>
       <c r="F295" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5985,14 +5985,14 @@
         <v>16</v>
       </c>
       <c r="B296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C296" t="s">
         <v>8</v>
       </c>
       <c r="F296" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6001,14 +6001,14 @@
         <v>16</v>
       </c>
       <c r="B297" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C297" t="s">
         <v>9</v>
       </c>
       <c r="F297" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
         <v>16</v>
       </c>
       <c r="B298" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C298" t="s">
@@ -6026,7 +6026,7 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6035,7 +6035,7 @@
         <v>16</v>
       </c>
       <c r="B299" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C299" t="s">
@@ -6048,7 +6048,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F299" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
         <v>16</v>
       </c>
       <c r="B300" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C300" t="s">
@@ -6070,7 +6070,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F300" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6079,7 +6079,7 @@
         <v>16</v>
       </c>
       <c r="B301" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C301" t="s">
@@ -6092,7 +6092,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F301" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6101,14 +6101,14 @@
         <v>16</v>
       </c>
       <c r="B302" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>S50</v>
       </c>
       <c r="C302" t="s">
         <v>14</v>
       </c>
       <c r="F302" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F303" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6138,7 +6138,7 @@
         <v>17</v>
       </c>
       <c r="B304" t="str">
-        <f t="shared" ref="B304:B309" si="14">B303</f>
+        <f t="shared" ref="B304:B309" si="13">B303</f>
         <v>S51</v>
       </c>
       <c r="C304" t="s">
@@ -6151,7 +6151,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F304" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6160,7 +6160,7 @@
         <v>17</v>
       </c>
       <c r="B305" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>S51</v>
       </c>
       <c r="C305" t="s">
@@ -6173,7 +6173,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F305" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6182,14 +6182,14 @@
         <v>17</v>
       </c>
       <c r="B306" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>S51</v>
       </c>
       <c r="C306" t="s">
         <v>11</v>
       </c>
       <c r="F306" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6198,14 +6198,14 @@
         <v>17</v>
       </c>
       <c r="B307" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>S51</v>
       </c>
       <c r="C307" t="s">
         <v>12</v>
       </c>
       <c r="F307" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
         <v>17</v>
       </c>
       <c r="B308" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>S51</v>
       </c>
       <c r="C308" t="s">
@@ -6223,7 +6223,7 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6232,7 +6232,7 @@
         <v>17</v>
       </c>
       <c r="B309" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>S51</v>
       </c>
       <c r="C309" t="s">
@@ -6245,7 +6245,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F309" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -6275,7 +6275,7 @@
         <v>17</v>
       </c>
       <c r="B311" t="str">
-        <f t="shared" ref="B311:B337" si="15">B310</f>
+        <f t="shared" ref="B311:B337" si="14">B310</f>
         <v>S52</v>
       </c>
       <c r="C311" t="s">
@@ -6288,7 +6288,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F311" s="1">
-        <f t="shared" ref="F311:F337" si="16">E311-D311</f>
+        <f t="shared" ref="F311:F337" si="15">E311-D311</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
         <v>17</v>
       </c>
       <c r="B312" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C312" t="s">
@@ -6310,7 +6310,7 @@
         <v>0.75</v>
       </c>
       <c r="F312" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -6319,7 +6319,7 @@
         <v>17</v>
       </c>
       <c r="B313" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C313" t="s">
@@ -6328,7 +6328,7 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6337,7 +6337,7 @@
         <v>17</v>
       </c>
       <c r="B314" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C314" t="s">
@@ -6346,7 +6346,7 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6355,7 +6355,7 @@
         <v>17</v>
       </c>
       <c r="B315" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C315" t="s">
@@ -6364,7 +6364,7 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6373,7 +6373,7 @@
         <v>17</v>
       </c>
       <c r="B316" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C316" t="s">
@@ -6386,7 +6386,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F316" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -6395,7 +6395,7 @@
         <v>16</v>
       </c>
       <c r="B317" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C317" t="s">
@@ -6404,7 +6404,7 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6413,7 +6413,7 @@
         <v>16</v>
       </c>
       <c r="B318" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C318" t="s">
@@ -6422,7 +6422,7 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
         <v>16</v>
       </c>
       <c r="B319" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C319" t="s">
@@ -6440,7 +6440,7 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6449,7 +6449,7 @@
         <v>16</v>
       </c>
       <c r="B320" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C320" t="s">
@@ -6458,7 +6458,7 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
         <v>16</v>
       </c>
       <c r="B321" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C321" t="s">
@@ -6480,7 +6480,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F321" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6489,7 +6489,7 @@
         <v>16</v>
       </c>
       <c r="B322" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C322" t="s">
@@ -6502,7 +6502,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F322" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
         <v>16</v>
       </c>
       <c r="B323" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C323" t="s">
@@ -6520,7 +6520,7 @@
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6529,7 +6529,7 @@
         <v>15</v>
       </c>
       <c r="B324" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C324" t="s">
@@ -6538,7 +6538,7 @@
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6547,7 +6547,7 @@
         <v>15</v>
       </c>
       <c r="B325" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C325" t="s">
@@ -6560,7 +6560,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F325" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -6569,7 +6569,7 @@
         <v>15</v>
       </c>
       <c r="B326" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C326" t="s">
@@ -6582,7 +6582,7 @@
         <v>0.75</v>
       </c>
       <c r="F326" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.3125</v>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
         <v>15</v>
       </c>
       <c r="B327" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C327" t="s">
@@ -6600,7 +6600,7 @@
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
         <v>15</v>
       </c>
       <c r="B328" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C328" t="s">
@@ -6622,7 +6622,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F328" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
         <v>15</v>
       </c>
       <c r="B329" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C329" t="s">
@@ -6644,7 +6644,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F329" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6653,7 +6653,7 @@
         <v>15</v>
       </c>
       <c r="B330" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C330" t="s">
@@ -6662,7 +6662,7 @@
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
         <v>6</v>
       </c>
       <c r="B331" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C331" t="s">
@@ -6684,7 +6684,7 @@
         <v>0.75</v>
       </c>
       <c r="F331" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.27083333333333331</v>
       </c>
     </row>
@@ -6693,7 +6693,7 @@
         <v>6</v>
       </c>
       <c r="B332" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C332" t="s">
@@ -6702,7 +6702,7 @@
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
         <v>6</v>
       </c>
       <c r="B333" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C333" t="s">
@@ -6724,7 +6724,7 @@
         <v>0.75</v>
       </c>
       <c r="F333" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.3125</v>
       </c>
     </row>
@@ -6733,7 +6733,7 @@
         <v>6</v>
       </c>
       <c r="B334" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C334" t="s">
@@ -6742,7 +6742,7 @@
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
         <v>6</v>
       </c>
       <c r="B335" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C335" t="s">
@@ -6764,7 +6764,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F335" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
         <v>6</v>
       </c>
       <c r="B336" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C336" t="s">
@@ -6786,7 +6786,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F336" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
         <v>6</v>
       </c>
       <c r="B337" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S52</v>
       </c>
       <c r="C337" t="s">
@@ -6804,7 +6804,7 @@
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienbeguin/Desktop/Mon_App_Planning_Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E068576-ED2B-A64F-A596-FD245EAD06EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BB0E8B-5427-5240-8FD7-C1E7C3BA4F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13040" yWindow="1740" windowWidth="33120" windowHeight="16940" xr2:uid="{69F5D6A4-E2E0-1044-9F99-AFEFC3369136}"/>
+    <workbookView xWindow="6000" yWindow="500" windowWidth="36820" windowHeight="22260" xr2:uid="{69F5D6A4-E2E0-1044-9F99-AFEFC3369136}"/>
   </bookViews>
   <sheets>
     <sheet name="De la S41 à la S52" sheetId="1" r:id="rId1"/>
@@ -278,7 +278,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{159EAC6A-6252-B246-9CAC-71A096134D8C}" name="Tableau1" displayName="Tableau1" ref="A1:F337" totalsRowShown="0">
-  <autoFilter ref="A1:F337" xr:uid="{159EAC6A-6252-B246-9CAC-71A096134D8C}"/>
+  <autoFilter ref="A1:F337" xr:uid="{159EAC6A-6252-B246-9CAC-71A096134D8C}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="S42"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A30:F57">
     <sortCondition descending="1" ref="A1:A337"/>
   </sortState>
@@ -616,7 +622,7 @@
   <dimension ref="A1:F337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,7 +647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -652,11 +658,11 @@
         <v>8</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F57" si="0">E2-D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F2:F29" si="0">E2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -671,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -686,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -716,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -731,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -746,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -763,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -784,7 +790,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -799,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -820,7 +826,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -841,7 +847,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -862,7 +868,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -877,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -892,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -928,7 +934,7 @@
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -949,7 +955,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -970,7 +976,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -991,7 +997,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1069,7 +1075,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F30" s="1">
-        <f>E30-D30</f>
+        <f t="shared" ref="F30:F57" si="1">E30-D30</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1161,7 +1167,7 @@
         <v>17</v>
       </c>
       <c r="B31" t="str">
-        <f>B30</f>
+        <f t="shared" ref="B31:B36" si="2">B30</f>
         <v>S42</v>
       </c>
       <c r="C31" t="s">
@@ -1174,7 +1180,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F31" s="1">
-        <f>E31-D31</f>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1183,7 +1189,7 @@
         <v>17</v>
       </c>
       <c r="B32" t="str">
-        <f>B31</f>
+        <f t="shared" si="2"/>
         <v>S42</v>
       </c>
       <c r="C32" t="s">
@@ -1192,7 +1198,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1">
-        <f>E32-D32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1201,14 +1207,14 @@
         <v>17</v>
       </c>
       <c r="B33" t="str">
-        <f>B32</f>
+        <f t="shared" si="2"/>
         <v>S42</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="1">
-        <f>E33-D33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1217,14 +1223,14 @@
         <v>17</v>
       </c>
       <c r="B34" t="str">
-        <f>B33</f>
+        <f t="shared" si="2"/>
         <v>S42</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="1">
-        <f>E34-D34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1233,7 +1239,7 @@
         <v>17</v>
       </c>
       <c r="B35" t="str">
-        <f>B34</f>
+        <f t="shared" si="2"/>
         <v>S42</v>
       </c>
       <c r="C35" t="s">
@@ -1246,7 +1252,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F35" s="1">
-        <f>E35-D35</f>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1255,7 +1261,7 @@
         <v>17</v>
       </c>
       <c r="B36" t="str">
-        <f>B35</f>
+        <f t="shared" si="2"/>
         <v>S42</v>
       </c>
       <c r="C36" t="s">
@@ -1268,7 +1274,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F36" s="1">
-        <f>E36-D36</f>
+        <f t="shared" si="1"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -1283,7 +1289,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="1">
-        <f>E37-D37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1298,7 +1304,7 @@
         <v>9</v>
       </c>
       <c r="F38" s="1">
-        <f>E38-D38</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1319,7 +1325,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F39" s="1">
-        <f>E39-D39</f>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1340,7 +1346,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F40" s="1">
-        <f>E40-D40</f>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1361,7 +1367,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F41" s="1">
-        <f>E41-D41</f>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1378,7 +1384,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1">
-        <f>E42-D42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1393,7 +1399,7 @@
         <v>14</v>
       </c>
       <c r="F43" s="1">
-        <f>E43-D43</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1410,7 +1416,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
-        <f>E44-D44</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1427,7 +1433,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1">
-        <f>E45-D45</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1442,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="F46" s="1">
-        <f>E46-D46</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1459,7 +1465,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1">
-        <f>E47-D47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1476,7 +1482,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1">
-        <f>E48-D48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1493,7 +1499,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1">
-        <f>E49-D49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1508,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="F50" s="1">
-        <f>E50-D50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1523,7 +1529,7 @@
         <v>8</v>
       </c>
       <c r="F51" s="1">
-        <f>E51-D51</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1544,7 +1550,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F52" s="1">
-        <f>E52-D52</f>
+        <f t="shared" si="1"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -1565,7 +1571,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F53" s="1">
-        <f>E53-D53</f>
+        <f t="shared" si="1"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -1586,7 +1592,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F54" s="1">
-        <f>E54-D54</f>
+        <f t="shared" si="1"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -1607,7 +1613,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F55" s="1">
-        <f>E55-D55</f>
+        <f t="shared" si="1"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -1628,7 +1634,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F56" s="1">
-        <f>E56-D56</f>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1643,11 +1649,11 @@
         <v>14</v>
       </c>
       <c r="F57" s="1">
-        <f>E57-D57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>6</v>
       </c>
@@ -1663,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>6</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>6</v>
       </c>
@@ -1695,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>6</v>
       </c>
@@ -1711,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>6</v>
       </c>
@@ -1727,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>6</v>
       </c>
@@ -1743,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>6</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>15</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>15</v>
       </c>
@@ -1795,7 +1801,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>15</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>15</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>15</v>
       </c>
@@ -1851,7 +1857,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>15</v>
       </c>
@@ -1871,7 +1877,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>15</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>16</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>16</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>16</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>16</v>
       </c>
@@ -1959,7 +1965,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>16</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>16</v>
       </c>
@@ -1999,7 +2005,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>16</v>
       </c>
@@ -2015,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>17</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>17</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>17</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>17</v>
       </c>
@@ -2091,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>17</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>17</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>17</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2154,11 +2160,11 @@
         <v>8</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" ref="F86:F117" si="1">E86-D86</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F86:F117" si="3">E86-D86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -2175,11 +2181,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -2196,11 +2202,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -2217,11 +2223,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -2238,11 +2244,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -2259,11 +2265,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="1"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -2274,11 +2280,11 @@
         <v>14</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -2291,11 +2297,11 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -2308,11 +2314,11 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -2323,11 +2329,11 @@
         <v>10</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -2340,11 +2346,11 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -2357,11 +2363,11 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -2374,11 +2380,11 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -2389,11 +2395,11 @@
         <v>14</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -2404,11 +2410,11 @@
         <v>8</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -2419,11 +2425,11 @@
         <v>9</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2440,11 +2446,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="1"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -2461,11 +2467,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" si="1"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -2482,11 +2488,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" si="1"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -2499,11 +2505,11 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -2514,11 +2520,11 @@
         <v>14</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -2535,16 +2541,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="1"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>17</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" ref="B108:B113" si="2">B107</f>
+        <f t="shared" ref="B108:B113" si="4">B107</f>
         <v>S44</v>
       </c>
       <c r="C108" t="s">
@@ -2557,16 +2563,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="1"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>17</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>S44</v>
       </c>
       <c r="C109" t="s">
@@ -2575,48 +2581,48 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>17</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>S44</v>
       </c>
       <c r="C110" t="s">
         <v>11</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>17</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>S44</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>17</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>S44</v>
       </c>
       <c r="C112" t="s">
@@ -2629,16 +2635,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F112" s="1">
-        <f t="shared" si="1"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>17</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>S44</v>
       </c>
       <c r="C113" t="s">
@@ -2651,11 +2657,11 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -2666,11 +2672,11 @@
         <v>8</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -2681,11 +2687,11 @@
         <v>9</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -2696,11 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -2711,11 +2717,11 @@
         <v>11</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -2726,11 +2732,11 @@
         <v>12</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" ref="F118:F149" si="3">E118-D118</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F118:F149" si="5">E118-D118</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -2741,11 +2747,11 @@
         <v>13</v>
       </c>
       <c r="F119" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -2756,11 +2762,11 @@
         <v>14</v>
       </c>
       <c r="F120" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -2773,11 +2779,11 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -2794,11 +2800,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F122" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -2809,11 +2815,11 @@
         <v>10</v>
       </c>
       <c r="F123" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -2830,11 +2836,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F124" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -2851,11 +2857,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F125" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -2872,11 +2878,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F126" s="1">
-        <f t="shared" si="3"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -2887,11 +2893,11 @@
         <v>14</v>
       </c>
       <c r="F127" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>16</v>
       </c>
@@ -2902,11 +2908,11 @@
         <v>8</v>
       </c>
       <c r="F128" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -2917,11 +2923,11 @@
         <v>9</v>
       </c>
       <c r="F129" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -2938,11 +2944,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F130" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -2959,11 +2965,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F131" s="1">
-        <f t="shared" si="3"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -2980,11 +2986,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F132" s="1">
-        <f t="shared" si="3"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -3001,11 +3007,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F133" s="1">
-        <f t="shared" si="3"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -3016,11 +3022,11 @@
         <v>14</v>
       </c>
       <c r="F134" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -3037,11 +3043,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F135" s="1">
-        <f t="shared" si="3"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -3058,11 +3064,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F136" s="1">
-        <f t="shared" si="3"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -3079,11 +3085,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F137" s="1">
-        <f t="shared" si="3"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -3094,11 +3100,11 @@
         <v>11</v>
       </c>
       <c r="F138" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -3109,11 +3115,11 @@
         <v>12</v>
       </c>
       <c r="F139" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -3124,11 +3130,11 @@
         <v>13</v>
       </c>
       <c r="F140" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -3145,11 +3151,11 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F141" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -3160,11 +3166,11 @@
         <v>8</v>
       </c>
       <c r="F142" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -3181,11 +3187,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F143" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -3202,11 +3208,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F144" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -3223,11 +3229,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F145" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -3244,11 +3250,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F146" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -3265,11 +3271,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F147" s="1">
-        <f t="shared" si="3"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -3280,11 +3286,11 @@
         <v>14</v>
       </c>
       <c r="F148" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>15</v>
       </c>
@@ -3297,11 +3303,11 @@
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -3314,11 +3320,11 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1">
-        <f t="shared" ref="F150:F181" si="4">E150-D150</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F150:F181" si="6">E150-D150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -3329,11 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F151" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>15</v>
       </c>
@@ -3346,11 +3352,11 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>15</v>
       </c>
@@ -3363,11 +3369,11 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>15</v>
       </c>
@@ -3380,11 +3386,11 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>15</v>
       </c>
@@ -3395,11 +3401,11 @@
         <v>14</v>
       </c>
       <c r="F155" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>16</v>
       </c>
@@ -3410,11 +3416,11 @@
         <v>8</v>
       </c>
       <c r="F156" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>16</v>
       </c>
@@ -3425,11 +3431,11 @@
         <v>9</v>
       </c>
       <c r="F157" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>16</v>
       </c>
@@ -3446,11 +3452,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F158" s="1">
-        <f t="shared" si="4"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -3467,11 +3473,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F159" s="1">
-        <f t="shared" si="4"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>16</v>
       </c>
@@ -3488,11 +3494,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F160" s="1">
-        <f t="shared" si="4"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>16</v>
       </c>
@@ -3505,11 +3511,11 @@
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>16</v>
       </c>
@@ -3520,11 +3526,11 @@
         <v>14</v>
       </c>
       <c r="F162" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -3541,16 +3547,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F163" s="1">
-        <f t="shared" si="4"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>17</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" ref="B164:B169" si="5">B163</f>
+        <f t="shared" ref="B164:B169" si="7">B163</f>
         <v>S46</v>
       </c>
       <c r="C164" t="s">
@@ -3563,16 +3569,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F164" s="1">
-        <f t="shared" si="4"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>17</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>S46</v>
       </c>
       <c r="C165" t="s">
@@ -3581,48 +3587,48 @@
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>17</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>S46</v>
       </c>
       <c r="C166" t="s">
         <v>11</v>
       </c>
       <c r="F166" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>17</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>S46</v>
       </c>
       <c r="C167" t="s">
         <v>12</v>
       </c>
       <c r="F167" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>17</v>
       </c>
       <c r="B168" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>S46</v>
       </c>
       <c r="C168" t="s">
@@ -3635,16 +3641,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F168" s="1">
-        <f t="shared" si="4"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>17</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>S46</v>
       </c>
       <c r="C169" t="s">
@@ -3657,11 +3663,11 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F169" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -3672,11 +3678,11 @@
         <v>8</v>
       </c>
       <c r="F170" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -3687,11 +3693,11 @@
         <v>9</v>
       </c>
       <c r="F171" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -3702,11 +3708,11 @@
         <v>10</v>
       </c>
       <c r="F172" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -3717,11 +3723,11 @@
         <v>11</v>
       </c>
       <c r="F173" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -3732,11 +3738,11 @@
         <v>12</v>
       </c>
       <c r="F174" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -3747,11 +3753,11 @@
         <v>13</v>
       </c>
       <c r="F175" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -3762,11 +3768,11 @@
         <v>14</v>
       </c>
       <c r="F176" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>15</v>
       </c>
@@ -3779,11 +3785,11 @@
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>15</v>
       </c>
@@ -3800,11 +3806,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F178" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>15</v>
       </c>
@@ -3815,11 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F179" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -3836,11 +3842,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F180" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -3857,11 +3863,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F181" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -3878,11 +3884,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F182" s="1">
-        <f t="shared" ref="F182:F213" si="6">E182-D182</f>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F182:F213" si="8">E182-D182</f>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>15</v>
       </c>
@@ -3893,11 +3899,11 @@
         <v>14</v>
       </c>
       <c r="F183" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>16</v>
       </c>
@@ -3908,11 +3914,11 @@
         <v>8</v>
       </c>
       <c r="F184" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>16</v>
       </c>
@@ -3923,11 +3929,11 @@
         <v>9</v>
       </c>
       <c r="F185" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>16</v>
       </c>
@@ -3944,11 +3950,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F186" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>16</v>
       </c>
@@ -3965,11 +3971,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F187" s="1">
-        <f t="shared" si="6"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -3986,11 +3992,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F188" s="1">
-        <f t="shared" si="6"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>16</v>
       </c>
@@ -4007,11 +4013,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F189" s="1">
-        <f t="shared" si="6"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>16</v>
       </c>
@@ -4022,11 +4028,11 @@
         <v>14</v>
       </c>
       <c r="F190" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -4043,11 +4049,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F191" s="1">
-        <f t="shared" si="6"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -4064,11 +4070,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F192" s="1">
-        <f t="shared" si="6"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -4085,11 +4091,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F193" s="1">
-        <f t="shared" si="6"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -4100,11 +4106,11 @@
         <v>11</v>
       </c>
       <c r="F194" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>17</v>
       </c>
@@ -4115,11 +4121,11 @@
         <v>12</v>
       </c>
       <c r="F195" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>17</v>
       </c>
@@ -4130,11 +4136,11 @@
         <v>13</v>
       </c>
       <c r="F196" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -4151,11 +4157,11 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F197" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -4166,11 +4172,11 @@
         <v>8</v>
       </c>
       <c r="F198" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -4187,11 +4193,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F199" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -4208,11 +4214,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F200" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -4229,11 +4235,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F201" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -4250,11 +4256,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F202" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>6</v>
       </c>
@@ -4271,11 +4277,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F203" s="1">
-        <f t="shared" si="6"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -4286,11 +4292,11 @@
         <v>14</v>
       </c>
       <c r="F204" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -4303,11 +4309,11 @@
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -4320,11 +4326,11 @@
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -4335,11 +4341,11 @@
         <v>10</v>
       </c>
       <c r="F207" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>15</v>
       </c>
@@ -4352,11 +4358,11 @@
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -4369,11 +4375,11 @@
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -4386,11 +4392,11 @@
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>15</v>
       </c>
@@ -4401,11 +4407,11 @@
         <v>14</v>
       </c>
       <c r="F211" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>16</v>
       </c>
@@ -4416,11 +4422,11 @@
         <v>8</v>
       </c>
       <c r="F212" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>16</v>
       </c>
@@ -4431,11 +4437,11 @@
         <v>9</v>
       </c>
       <c r="F213" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>16</v>
       </c>
@@ -4452,11 +4458,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F214" s="1">
-        <f t="shared" ref="F214:F245" si="7">E214-D214</f>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F214:F245" si="9">E214-D214</f>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>16</v>
       </c>
@@ -4473,11 +4479,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F215" s="1">
-        <f t="shared" si="7"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>16</v>
       </c>
@@ -4494,11 +4500,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F216" s="1">
-        <f t="shared" si="7"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>16</v>
       </c>
@@ -4511,11 +4517,11 @@
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>16</v>
       </c>
@@ -4526,11 +4532,11 @@
         <v>14</v>
       </c>
       <c r="F218" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -4547,16 +4553,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F219" s="1">
-        <f t="shared" si="7"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>17</v>
       </c>
       <c r="B220" t="str">
-        <f t="shared" ref="B220:B225" si="8">B219</f>
+        <f t="shared" ref="B220:B225" si="10">B219</f>
         <v>S48</v>
       </c>
       <c r="C220" t="s">
@@ -4569,16 +4575,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F220" s="1">
-        <f t="shared" si="7"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>17</v>
       </c>
       <c r="B221" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S48</v>
       </c>
       <c r="C221" t="s">
@@ -4587,48 +4593,48 @@
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>17</v>
       </c>
       <c r="B222" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S48</v>
       </c>
       <c r="C222" t="s">
         <v>11</v>
       </c>
       <c r="F222" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>17</v>
       </c>
       <c r="B223" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S48</v>
       </c>
       <c r="C223" t="s">
         <v>12</v>
       </c>
       <c r="F223" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>17</v>
       </c>
       <c r="B224" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S48</v>
       </c>
       <c r="C224" t="s">
@@ -4641,16 +4647,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F224" s="1">
-        <f t="shared" si="7"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>17</v>
       </c>
       <c r="B225" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S48</v>
       </c>
       <c r="C225" t="s">
@@ -4663,11 +4669,11 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F225" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -4678,11 +4684,11 @@
         <v>8</v>
       </c>
       <c r="F226" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -4693,11 +4699,11 @@
         <v>9</v>
       </c>
       <c r="F227" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -4708,11 +4714,11 @@
         <v>10</v>
       </c>
       <c r="F228" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>6</v>
       </c>
@@ -4723,11 +4729,11 @@
         <v>11</v>
       </c>
       <c r="F229" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -4738,11 +4744,11 @@
         <v>12</v>
       </c>
       <c r="F230" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -4753,11 +4759,11 @@
         <v>13</v>
       </c>
       <c r="F231" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -4768,11 +4774,11 @@
         <v>14</v>
       </c>
       <c r="F232" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>15</v>
       </c>
@@ -4785,11 +4791,11 @@
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>15</v>
       </c>
@@ -4806,11 +4812,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F234" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>15</v>
       </c>
@@ -4821,11 +4827,11 @@
         <v>10</v>
       </c>
       <c r="F235" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>15</v>
       </c>
@@ -4842,11 +4848,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F236" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>15</v>
       </c>
@@ -4863,11 +4869,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F237" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>15</v>
       </c>
@@ -4884,11 +4890,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F238" s="1">
-        <f t="shared" si="7"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>15</v>
       </c>
@@ -4899,11 +4905,11 @@
         <v>14</v>
       </c>
       <c r="F239" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>16</v>
       </c>
@@ -4914,11 +4920,11 @@
         <v>8</v>
       </c>
       <c r="F240" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>16</v>
       </c>
@@ -4929,11 +4935,11 @@
         <v>9</v>
       </c>
       <c r="F241" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>16</v>
       </c>
@@ -4950,11 +4956,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F242" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>16</v>
       </c>
@@ -4971,11 +4977,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F243" s="1">
-        <f t="shared" si="7"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>16</v>
       </c>
@@ -4992,11 +4998,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F244" s="1">
-        <f t="shared" si="7"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>16</v>
       </c>
@@ -5013,11 +5019,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F245" s="1">
-        <f t="shared" si="7"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>16</v>
       </c>
@@ -5028,11 +5034,11 @@
         <v>14</v>
       </c>
       <c r="F246" s="1">
-        <f t="shared" ref="F246:F253" si="9">E246-D246</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F246:F253" si="11">E246-D246</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -5049,11 +5055,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F247" s="1">
-        <f t="shared" si="9"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -5070,11 +5076,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F248" s="1">
-        <f t="shared" si="9"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -5091,11 +5097,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F249" s="1">
-        <f t="shared" si="9"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -5106,11 +5112,11 @@
         <v>11</v>
       </c>
       <c r="F250" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -5121,11 +5127,11 @@
         <v>12</v>
       </c>
       <c r="F251" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -5136,11 +5142,11 @@
         <v>13</v>
       </c>
       <c r="F252" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -5157,32 +5163,32 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F253" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>6</v>
       </c>
       <c r="B254" t="str">
-        <f t="shared" ref="B254:B274" si="10">B253</f>
+        <f t="shared" ref="B254:B274" si="12">B253</f>
         <v>S49</v>
       </c>
       <c r="C254" t="s">
         <v>8</v>
       </c>
       <c r="F254" s="1">
-        <f t="shared" ref="F254:F309" si="11">E254-D254</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F254:F309" si="13">E254-D254</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>6</v>
       </c>
       <c r="B255" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C255" t="s">
@@ -5195,16 +5201,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F255" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>6</v>
       </c>
       <c r="B256" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C256" t="s">
@@ -5217,16 +5223,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F256" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>6</v>
       </c>
       <c r="B257" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C257" t="s">
@@ -5239,16 +5245,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F257" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>6</v>
       </c>
       <c r="B258" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C258" t="s">
@@ -5261,16 +5267,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F258" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>6</v>
       </c>
       <c r="B259" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C259" t="s">
@@ -5283,32 +5289,32 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F259" s="1">
-        <f t="shared" si="11"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>6</v>
       </c>
       <c r="B260" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C260" t="s">
         <v>14</v>
       </c>
       <c r="F260" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>15</v>
       </c>
       <c r="B261" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C261" t="s">
@@ -5317,16 +5323,16 @@
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>15</v>
       </c>
       <c r="B262" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C262" t="s">
@@ -5335,32 +5341,32 @@
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>15</v>
       </c>
       <c r="B263" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C263" t="s">
         <v>10</v>
       </c>
       <c r="F263" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>15</v>
       </c>
       <c r="B264" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C264" t="s">
@@ -5369,16 +5375,16 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>15</v>
       </c>
       <c r="B265" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C265" t="s">
@@ -5387,16 +5393,16 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>15</v>
       </c>
       <c r="B266" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C266" t="s">
@@ -5405,64 +5411,64 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>15</v>
       </c>
       <c r="B267" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C267" t="s">
         <v>14</v>
       </c>
       <c r="F267" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>16</v>
       </c>
       <c r="B268" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C268" t="s">
         <v>8</v>
       </c>
       <c r="F268" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>16</v>
       </c>
       <c r="B269" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C269" t="s">
         <v>9</v>
       </c>
       <c r="F269" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>16</v>
       </c>
       <c r="B270" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C270" t="s">
@@ -5475,16 +5481,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F270" s="1">
-        <f t="shared" si="11"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>16</v>
       </c>
       <c r="B271" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C271" t="s">
@@ -5497,16 +5503,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F271" s="1">
-        <f t="shared" si="11"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>16</v>
       </c>
       <c r="B272" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C272" t="s">
@@ -5519,16 +5525,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F272" s="1">
-        <f t="shared" si="11"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>16</v>
       </c>
       <c r="B273" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C273" t="s">
@@ -5537,27 +5543,27 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>16</v>
       </c>
       <c r="B274" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>S49</v>
       </c>
       <c r="C274" t="s">
         <v>14</v>
       </c>
       <c r="F274" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>17</v>
       </c>
@@ -5574,16 +5580,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F275" s="1">
-        <f t="shared" si="11"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>17</v>
       </c>
       <c r="B276" t="str">
-        <f t="shared" ref="B276:B302" si="12">B275</f>
+        <f t="shared" ref="B276:B302" si="14">B275</f>
         <v>S50</v>
       </c>
       <c r="C276" t="s">
@@ -5596,16 +5602,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F276" s="1">
-        <f t="shared" si="11"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>17</v>
       </c>
       <c r="B277" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C277" t="s">
@@ -5614,48 +5620,48 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>17</v>
       </c>
       <c r="B278" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C278" t="s">
         <v>11</v>
       </c>
       <c r="F278" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>17</v>
       </c>
       <c r="B279" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C279" t="s">
         <v>12</v>
       </c>
       <c r="F279" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>17</v>
       </c>
       <c r="B280" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C280" t="s">
@@ -5668,16 +5674,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F280" s="1">
-        <f t="shared" si="11"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>17</v>
       </c>
       <c r="B281" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C281" t="s">
@@ -5690,32 +5696,32 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F281" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>6</v>
       </c>
       <c r="B282" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C282" t="s">
         <v>8</v>
       </c>
       <c r="F282" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>6</v>
       </c>
       <c r="B283" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C283" t="s">
@@ -5728,16 +5734,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F283" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>6</v>
       </c>
       <c r="B284" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C284" t="s">
@@ -5750,16 +5756,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F284" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>6</v>
       </c>
       <c r="B285" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C285" t="s">
@@ -5772,16 +5778,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F285" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>6</v>
       </c>
       <c r="B286" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C286" t="s">
@@ -5794,16 +5800,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F286" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>6</v>
       </c>
       <c r="B287" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C287" t="s">
@@ -5816,32 +5822,32 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F287" s="1">
-        <f t="shared" si="11"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>6</v>
       </c>
       <c r="B288" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C288" t="s">
         <v>14</v>
       </c>
       <c r="F288" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>15</v>
       </c>
       <c r="B289" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C289" t="s">
@@ -5854,16 +5860,16 @@
         <v>0.75</v>
       </c>
       <c r="F289" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>15</v>
       </c>
       <c r="B290" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C290" t="s">
@@ -5872,16 +5878,16 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>15</v>
       </c>
       <c r="B291" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C291" t="s">
@@ -5894,16 +5900,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F291" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>15</v>
       </c>
       <c r="B292" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C292" t="s">
@@ -5916,16 +5922,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F292" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>15</v>
       </c>
       <c r="B293" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C293" t="s">
@@ -5938,16 +5944,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F293" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>15</v>
       </c>
       <c r="B294" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C294" t="s">
@@ -5960,64 +5966,64 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F294" s="1">
-        <f t="shared" si="11"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>15</v>
       </c>
       <c r="B295" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C295" t="s">
         <v>14</v>
       </c>
       <c r="F295" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>16</v>
       </c>
       <c r="B296" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C296" t="s">
         <v>8</v>
       </c>
       <c r="F296" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>16</v>
       </c>
       <c r="B297" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C297" t="s">
         <v>9</v>
       </c>
       <c r="F297" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>16</v>
       </c>
       <c r="B298" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C298" t="s">
@@ -6026,16 +6032,16 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>16</v>
       </c>
       <c r="B299" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C299" t="s">
@@ -6048,16 +6054,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F299" s="1">
-        <f t="shared" si="11"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>16</v>
       </c>
       <c r="B300" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C300" t="s">
@@ -6070,16 +6076,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F300" s="1">
-        <f t="shared" si="11"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>16</v>
       </c>
       <c r="B301" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C301" t="s">
@@ -6092,27 +6098,27 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F301" s="1">
-        <f t="shared" si="11"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>16</v>
       </c>
       <c r="B302" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>S50</v>
       </c>
       <c r="C302" t="s">
         <v>14</v>
       </c>
       <c r="F302" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -6129,16 +6135,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F303" s="1">
-        <f t="shared" si="11"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>17</v>
       </c>
       <c r="B304" t="str">
-        <f t="shared" ref="B304:B309" si="13">B303</f>
+        <f t="shared" ref="B304:B309" si="15">B303</f>
         <v>S51</v>
       </c>
       <c r="C304" t="s">
@@ -6151,16 +6157,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F304" s="1">
-        <f t="shared" si="11"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>17</v>
       </c>
       <c r="B305" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>S51</v>
       </c>
       <c r="C305" t="s">
@@ -6173,48 +6179,48 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F305" s="1">
-        <f t="shared" si="11"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>17</v>
       </c>
       <c r="B306" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>S51</v>
       </c>
       <c r="C306" t="s">
         <v>11</v>
       </c>
       <c r="F306" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>17</v>
       </c>
       <c r="B307" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>S51</v>
       </c>
       <c r="C307" t="s">
         <v>12</v>
       </c>
       <c r="F307" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>17</v>
       </c>
       <c r="B308" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>S51</v>
       </c>
       <c r="C308" t="s">
@@ -6223,16 +6229,16 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>17</v>
       </c>
       <c r="B309" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>S51</v>
       </c>
       <c r="C309" t="s">
@@ -6245,11 +6251,11 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F309" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -6270,12 +6276,12 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>17</v>
       </c>
       <c r="B311" t="str">
-        <f t="shared" ref="B311:B337" si="14">B310</f>
+        <f t="shared" ref="B311:B337" si="16">B310</f>
         <v>S52</v>
       </c>
       <c r="C311" t="s">
@@ -6288,16 +6294,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F311" s="1">
-        <f t="shared" ref="F311:F337" si="15">E311-D311</f>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F311:F337" si="17">E311-D311</f>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>17</v>
       </c>
       <c r="B312" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C312" t="s">
@@ -6310,16 +6316,16 @@
         <v>0.75</v>
       </c>
       <c r="F312" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>17</v>
       </c>
       <c r="B313" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C313" t="s">
@@ -6328,16 +6334,16 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>17</v>
       </c>
       <c r="B314" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C314" t="s">
@@ -6346,16 +6352,16 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>17</v>
       </c>
       <c r="B315" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C315" t="s">
@@ -6364,16 +6370,16 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>17</v>
       </c>
       <c r="B316" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C316" t="s">
@@ -6386,16 +6392,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F316" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>16</v>
       </c>
       <c r="B317" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C317" t="s">
@@ -6404,16 +6410,16 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>16</v>
       </c>
       <c r="B318" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C318" t="s">
@@ -6422,16 +6428,16 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>16</v>
       </c>
       <c r="B319" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C319" t="s">
@@ -6440,16 +6446,16 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>16</v>
       </c>
       <c r="B320" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C320" t="s">
@@ -6458,16 +6464,16 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>16</v>
       </c>
       <c r="B321" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C321" t="s">
@@ -6480,16 +6486,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F321" s="1">
-        <f t="shared" si="15"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>16</v>
       </c>
       <c r="B322" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C322" t="s">
@@ -6502,16 +6508,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F322" s="1">
-        <f t="shared" si="15"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>16</v>
       </c>
       <c r="B323" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C323" t="s">
@@ -6520,16 +6526,16 @@
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>15</v>
       </c>
       <c r="B324" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C324" t="s">
@@ -6538,16 +6544,16 @@
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>15</v>
       </c>
       <c r="B325" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C325" t="s">
@@ -6560,16 +6566,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F325" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>15</v>
       </c>
       <c r="B326" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C326" t="s">
@@ -6582,16 +6588,16 @@
         <v>0.75</v>
       </c>
       <c r="F326" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.3125</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>15</v>
       </c>
       <c r="B327" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C327" t="s">
@@ -6600,16 +6606,16 @@
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>15</v>
       </c>
       <c r="B328" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C328" t="s">
@@ -6622,16 +6628,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F328" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>15</v>
       </c>
       <c r="B329" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C329" t="s">
@@ -6644,16 +6650,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F329" s="1">
-        <f t="shared" si="15"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>15</v>
       </c>
       <c r="B330" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C330" t="s">
@@ -6662,16 +6668,16 @@
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>6</v>
       </c>
       <c r="B331" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C331" t="s">
@@ -6684,16 +6690,16 @@
         <v>0.75</v>
       </c>
       <c r="F331" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>6</v>
       </c>
       <c r="B332" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C332" t="s">
@@ -6702,16 +6708,16 @@
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>6</v>
       </c>
       <c r="B333" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C333" t="s">
@@ -6724,16 +6730,16 @@
         <v>0.75</v>
       </c>
       <c r="F333" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.3125</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>6</v>
       </c>
       <c r="B334" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C334" t="s">
@@ -6742,16 +6748,16 @@
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>6</v>
       </c>
       <c r="B335" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C335" t="s">
@@ -6764,16 +6770,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F335" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>6</v>
       </c>
       <c r="B336" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C336" t="s">
@@ -6786,16 +6792,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F336" s="1">
-        <f t="shared" si="15"/>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>6</v>
       </c>
       <c r="B337" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>S52</v>
       </c>
       <c r="C337" t="s">
@@ -6804,7 +6810,7 @@
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienbeguin/Desktop/Mon_App_Planning_Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BB0E8B-5427-5240-8FD7-C1E7C3BA4F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3E5B5F-0CFA-B94A-807F-908A6BC597F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="500" windowWidth="36820" windowHeight="22260" xr2:uid="{69F5D6A4-E2E0-1044-9F99-AFEFC3369136}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="30">
   <si>
     <t>NOM VENDEUR</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>S52</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -277,28 +280,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{159EAC6A-6252-B246-9CAC-71A096134D8C}" name="Tableau1" displayName="Tableau1" ref="A1:F337" totalsRowShown="0">
-  <autoFilter ref="A1:F337" xr:uid="{159EAC6A-6252-B246-9CAC-71A096134D8C}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="S42"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{159EAC6A-6252-B246-9CAC-71A096134D8C}" name="Tableau1" displayName="Tableau1" ref="A1:F338" totalsRowCount="1">
+  <autoFilter ref="A1:F337" xr:uid="{159EAC6A-6252-B246-9CAC-71A096134D8C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A30:F57">
     <sortCondition descending="1" ref="A1:A337"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ECF9E220-7151-B047-81E5-BB048C569DF8}" name="NOM VENDEUR"/>
+    <tableColumn id="1" xr3:uid="{ECF9E220-7151-B047-81E5-BB048C569DF8}" name="NOM VENDEUR" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{3C50DA9D-5049-9745-A705-6BA86113E872}" name="SEMAINE "/>
     <tableColumn id="3" xr3:uid="{7DD0CFFF-57E6-1A43-B0CE-D10AAAE4F03F}" name="JOUR "/>
     <tableColumn id="4" xr3:uid="{65626722-0CF0-2048-94EE-47E31D94ACA0}" name="HEURE DEBUT "/>
     <tableColumn id="5" xr3:uid="{B2764B63-966C-3549-988F-B4CFF890F9E7}" name="HEURE FIN "/>
-    <tableColumn id="6" xr3:uid="{BD57CCC1-66FF-7246-A479-316D232DBD1B}" name="TOTAL JOUR " dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{BD57CCC1-66FF-7246-A479-316D232DBD1B}" name="TOTAL JOUR " totalsRowFunction="count" dataDxfId="0">
       <calculatedColumnFormula>E2-D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
@@ -619,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF17394-328A-A34F-A5DB-16323C78C5F4}">
-  <dimension ref="A1:F337"/>
+  <dimension ref="A1:F338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,7 +644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -662,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -677,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -692,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -707,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -722,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -737,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -752,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -769,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -790,7 +787,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -805,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -826,7 +823,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -847,7 +844,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -868,7 +865,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -883,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -898,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -913,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -934,7 +931,7 @@
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -955,7 +952,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -976,7 +973,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -997,7 +994,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1012,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1033,7 +1030,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1054,7 +1051,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1075,7 +1072,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1090,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1105,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1120,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1653,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>6</v>
       </c>
@@ -1669,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>6</v>
       </c>
@@ -1685,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>6</v>
       </c>
@@ -1701,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>6</v>
       </c>
@@ -1717,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>6</v>
       </c>
@@ -1733,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>6</v>
       </c>
@@ -1749,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>6</v>
       </c>
@@ -1765,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>15</v>
       </c>
@@ -1781,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>15</v>
       </c>
@@ -1801,7 +1798,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>15</v>
       </c>
@@ -1817,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>15</v>
       </c>
@@ -1837,7 +1834,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>15</v>
       </c>
@@ -1857,7 +1854,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>15</v>
       </c>
@@ -1877,7 +1874,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>15</v>
       </c>
@@ -1893,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>16</v>
       </c>
@@ -1909,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>16</v>
       </c>
@@ -1925,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>16</v>
       </c>
@@ -1945,7 +1942,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>16</v>
       </c>
@@ -1965,7 +1962,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>16</v>
       </c>
@@ -1985,7 +1982,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>16</v>
       </c>
@@ -2005,7 +2002,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>16</v>
       </c>
@@ -2021,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>17</v>
       </c>
@@ -2041,7 +2038,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>17</v>
       </c>
@@ -2061,7 +2058,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>17</v>
       </c>
@@ -2081,7 +2078,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>17</v>
       </c>
@@ -2097,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>17</v>
       </c>
@@ -2113,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>17</v>
       </c>
@@ -2129,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>17</v>
       </c>
@@ -2149,7 +2146,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2164,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -2185,7 +2182,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -2206,7 +2203,7 @@
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -2227,7 +2224,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -2248,7 +2245,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -2269,7 +2266,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -2301,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -2318,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -2333,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -2350,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -2367,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -2384,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -2399,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -2414,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -2429,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2450,7 +2447,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -2471,7 +2468,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -2492,7 +2489,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -2509,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -2524,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -2545,7 +2542,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -2567,7 +2564,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -2585,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -2601,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -2617,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -2639,7 +2636,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -2661,7 +2658,7 @@
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -2676,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -2691,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -2706,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -2721,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -2736,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -2751,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -2766,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -2783,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -2804,7 +2801,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -2819,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -2840,7 +2837,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -2861,7 +2858,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -2882,7 +2879,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -2897,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>16</v>
       </c>
@@ -2912,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -2927,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -2948,7 +2945,7 @@
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -2969,7 +2966,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -2990,7 +2987,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -3011,7 +3008,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -3026,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -3047,7 +3044,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -3068,7 +3065,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -3089,7 +3086,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -3104,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -3119,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -3134,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -3155,7 +3152,7 @@
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -3170,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -3191,7 +3188,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -3212,7 +3209,7 @@
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -3233,7 +3230,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -3254,7 +3251,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -3275,7 +3272,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -3290,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>15</v>
       </c>
@@ -3307,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -3324,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -3339,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>15</v>
       </c>
@@ -3356,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>15</v>
       </c>
@@ -3373,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>15</v>
       </c>
@@ -3390,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>15</v>
       </c>
@@ -3405,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>16</v>
       </c>
@@ -3420,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>16</v>
       </c>
@@ -3435,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>16</v>
       </c>
@@ -3456,7 +3453,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -3477,7 +3474,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>16</v>
       </c>
@@ -3498,7 +3495,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>16</v>
       </c>
@@ -3515,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>16</v>
       </c>
@@ -3530,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -3551,7 +3548,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -3573,7 +3570,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -3591,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -3607,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -3623,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -3645,7 +3642,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -3667,7 +3664,7 @@
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -3682,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -3697,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -3712,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -3727,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -3742,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -3757,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -3772,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>15</v>
       </c>
@@ -3789,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>15</v>
       </c>
@@ -3810,7 +3807,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>15</v>
       </c>
@@ -3825,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -3846,7 +3843,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -3867,7 +3864,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -3888,7 +3885,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>15</v>
       </c>
@@ -3903,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>16</v>
       </c>
@@ -3918,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>16</v>
       </c>
@@ -3933,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>16</v>
       </c>
@@ -3954,7 +3951,7 @@
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>16</v>
       </c>
@@ -3975,7 +3972,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -3996,7 +3993,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>16</v>
       </c>
@@ -4017,7 +4014,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>16</v>
       </c>
@@ -4032,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -4053,7 +4050,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -4074,7 +4071,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -4095,7 +4092,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -4110,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>17</v>
       </c>
@@ -4125,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>17</v>
       </c>
@@ -4140,7 +4137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -4161,7 +4158,7 @@
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -4176,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -4197,7 +4194,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -4218,7 +4215,7 @@
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -4239,7 +4236,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -4260,7 +4257,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>6</v>
       </c>
@@ -4281,7 +4278,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -4296,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -4313,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -4330,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -4345,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>15</v>
       </c>
@@ -4362,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -4379,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -4396,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>15</v>
       </c>
@@ -4411,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>16</v>
       </c>
@@ -4426,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>16</v>
       </c>
@@ -4441,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>16</v>
       </c>
@@ -4462,7 +4459,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>16</v>
       </c>
@@ -4483,7 +4480,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>16</v>
       </c>
@@ -4504,7 +4501,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>16</v>
       </c>
@@ -4521,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>16</v>
       </c>
@@ -4536,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -4557,7 +4554,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -4579,7 +4576,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -4597,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -4613,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -4629,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -4651,7 +4648,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -4673,7 +4670,7 @@
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -4688,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -4703,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -4718,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>6</v>
       </c>
@@ -4733,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -4748,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -4763,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -4778,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>15</v>
       </c>
@@ -4795,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>15</v>
       </c>
@@ -4816,7 +4813,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>15</v>
       </c>
@@ -4831,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>15</v>
       </c>
@@ -4852,7 +4849,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>15</v>
       </c>
@@ -4873,7 +4870,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>15</v>
       </c>
@@ -4894,7 +4891,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>15</v>
       </c>
@@ -4909,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>16</v>
       </c>
@@ -4924,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>16</v>
       </c>
@@ -4939,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>16</v>
       </c>
@@ -4960,7 +4957,7 @@
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>16</v>
       </c>
@@ -4981,7 +4978,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>16</v>
       </c>
@@ -5002,7 +4999,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>16</v>
       </c>
@@ -5023,7 +5020,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>16</v>
       </c>
@@ -5038,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -5059,7 +5056,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -5080,7 +5077,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -5101,7 +5098,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -5116,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -5131,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -5146,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -5167,7 +5164,7 @@
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -5183,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>6</v>
       </c>
@@ -5205,7 +5202,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -5227,7 +5224,7 @@
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -5249,7 +5246,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -5271,7 +5268,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -5293,7 +5290,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -5309,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>15</v>
       </c>
@@ -5327,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>15</v>
       </c>
@@ -5345,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>15</v>
       </c>
@@ -5361,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>15</v>
       </c>
@@ -5379,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>15</v>
       </c>
@@ -5397,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>15</v>
       </c>
@@ -5415,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>15</v>
       </c>
@@ -5431,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>16</v>
       </c>
@@ -5447,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>16</v>
       </c>
@@ -5463,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>16</v>
       </c>
@@ -5485,7 +5482,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>16</v>
       </c>
@@ -5507,7 +5504,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>16</v>
       </c>
@@ -5529,7 +5526,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>16</v>
       </c>
@@ -5547,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>16</v>
       </c>
@@ -5563,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>17</v>
       </c>
@@ -5584,7 +5581,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>17</v>
       </c>
@@ -5606,7 +5603,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>17</v>
       </c>
@@ -5624,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>17</v>
       </c>
@@ -5640,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -5656,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>17</v>
       </c>
@@ -5678,7 +5675,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>17</v>
       </c>
@@ -5700,7 +5697,7 @@
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>6</v>
       </c>
@@ -5716,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -5738,7 +5735,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -5760,7 +5757,7 @@
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>6</v>
       </c>
@@ -5782,7 +5779,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>6</v>
       </c>
@@ -5804,7 +5801,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>6</v>
       </c>
@@ -5826,7 +5823,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>6</v>
       </c>
@@ -5842,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>15</v>
       </c>
@@ -5864,7 +5861,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>15</v>
       </c>
@@ -5882,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>15</v>
       </c>
@@ -5904,7 +5901,7 @@
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>15</v>
       </c>
@@ -5926,7 +5923,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>15</v>
       </c>
@@ -5948,7 +5945,7 @@
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>15</v>
       </c>
@@ -5970,7 +5967,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>15</v>
       </c>
@@ -5986,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>16</v>
       </c>
@@ -6002,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>16</v>
       </c>
@@ -6018,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>16</v>
       </c>
@@ -6036,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>16</v>
       </c>
@@ -6058,7 +6055,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>16</v>
       </c>
@@ -6080,7 +6077,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>16</v>
       </c>
@@ -6102,7 +6099,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>16</v>
       </c>
@@ -6118,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -6139,7 +6136,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>17</v>
       </c>
@@ -6161,7 +6158,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -6183,7 +6180,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>17</v>
       </c>
@@ -6199,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -6215,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>17</v>
       </c>
@@ -6233,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>17</v>
       </c>
@@ -6255,7 +6252,7 @@
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -6276,7 +6273,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -6298,7 +6295,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -6320,7 +6317,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>17</v>
       </c>
@@ -6338,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -6356,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>17</v>
       </c>
@@ -6374,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>17</v>
       </c>
@@ -6396,7 +6393,7 @@
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>16</v>
       </c>
@@ -6414,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>16</v>
       </c>
@@ -6432,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>16</v>
       </c>
@@ -6450,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>16</v>
       </c>
@@ -6468,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>16</v>
       </c>
@@ -6490,7 +6487,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>16</v>
       </c>
@@ -6512,7 +6509,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>16</v>
       </c>
@@ -6530,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>15</v>
       </c>
@@ -6548,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>15</v>
       </c>
@@ -6570,7 +6567,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>15</v>
       </c>
@@ -6592,7 +6589,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>15</v>
       </c>
@@ -6610,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>15</v>
       </c>
@@ -6632,7 +6629,7 @@
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>15</v>
       </c>
@@ -6654,7 +6651,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>15</v>
       </c>
@@ -6672,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>6</v>
       </c>
@@ -6694,7 +6691,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>6</v>
       </c>
@@ -6712,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>6</v>
       </c>
@@ -6734,7 +6731,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>6</v>
       </c>
@@ -6752,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>6</v>
       </c>
@@ -6774,7 +6771,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>6</v>
       </c>
@@ -6796,7 +6793,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>6</v>
       </c>
@@ -6812,6 +6809,15 @@
       <c r="F337" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>29</v>
+      </c>
+      <c r="F338">
+        <f>SUBTOTAL(103,Tableau1[[TOTAL JOUR ]])</f>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
